--- a/市場_2025改修/姫路市中央卸売市場システム_開発計画書(案)20250619 .xlsx
+++ b/市場_2025改修/姫路市中央卸売市場システム_開発計画書(案)20250619 .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\99_ETC\01_サントク\03_姫路市市場\200_2025改修\議事録\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8F0750-057B-48F9-A7D2-08B42302A8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122E864D-DC55-450A-B6E3-D864C129DA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="791" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
   <si>
     <t>1W</t>
     <phoneticPr fontId="2"/>
@@ -1342,10 +1342,6 @@
     <rPh sb="0" eb="3">
       <t>カブシキガイシャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ｒ７／０７</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3413,30 +3409,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3448,38 +3477,320 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3510,321 +3821,6 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5445,24 +5441,24 @@
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="129" t="s">
+      <c r="M6" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="132"/>
       <c r="Q6" s="76"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -5476,20 +5472,20 @@
     <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="125"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="125"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="137"/>
       <c r="Q7" s="122"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -5503,30 +5499,30 @@
     <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="128"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="138"/>
       <c r="Q8" s="122"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="129" t="s">
+      <c r="T8" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="130"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="131"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="132"/>
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5549,24 +5545,24 @@
       <c r="Q9" s="122"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="123" t="s">
-        <v>158</v>
-      </c>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="125"/>
+      <c r="T9" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="137"/>
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
@@ -5580,20 +5576,20 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="128"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="136"/>
+      <c r="X10" s="138"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="125"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5617,27 +5613,27 @@
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="132" t="s">
+      <c r="J12" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="134"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="145"/>
       <c r="N12" s="5"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="132" t="s">
+      <c r="P12" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="133"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
       <c r="T12" s="22"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -5675,12 +5671,12 @@
     <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
@@ -5704,27 +5700,27 @@
     <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="125"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="4"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="129" t="s">
+      <c r="J15" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="132"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="129" t="s">
+      <c r="P15" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
       <c r="T15" s="22"/>
       <c r="U15" s="76"/>
       <c r="V15" s="76"/>
@@ -5735,25 +5731,25 @@
     <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="128"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="136"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="141"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="123" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
+      <c r="P16" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
       <c r="T16" s="105"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
@@ -5771,16 +5767,16 @@
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="139"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="142"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
+      <c r="S17" s="136"/>
       <c r="T17" s="105"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
@@ -5791,12 +5787,12 @@
     <row r="18" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="16"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
@@ -5820,27 +5816,27 @@
     <row r="19" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="129" t="s">
+      <c r="J19" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="132"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="129" t="s">
+      <c r="P19" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="130"/>
-      <c r="S19" s="130"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
       <c r="T19" s="22"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -5851,25 +5847,25 @@
     <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="128"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="136"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="141"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="123" t="s">
+      <c r="P20" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
       <c r="T20" s="105"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -5887,16 +5883,16 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="139"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="142"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="136"/>
       <c r="T21" s="105"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
@@ -5972,59 +5968,59 @@
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="P24" s="129" t="s">
+      <c r="P24" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="130"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
       <c r="T24" s="22"/>
-      <c r="U24" s="129" t="s">
+      <c r="U24" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="V24" s="130"/>
-      <c r="W24" s="130"/>
-      <c r="X24" s="131"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="132"/>
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="140" t="s">
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="142"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="128"/>
       <c r="I25" s="4"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
-      <c r="P25" s="123" t="s">
+      <c r="P25" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
       <c r="T25" s="105"/>
-      <c r="U25" s="123" t="s">
+      <c r="U25" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="125"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="137"/>
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:25" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
       <c r="E26" s="26" t="s">
         <v>18</v>
       </c>
@@ -6036,22 +6032,22 @@
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="136"/>
       <c r="T26" s="105"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="128"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="136"/>
+      <c r="X26" s="138"/>
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
       <c r="E27" s="21"/>
       <c r="F27" s="112"/>
       <c r="G27" s="112"/>
@@ -6076,9 +6072,9 @@
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="20" t="s">
         <v>21</v>
       </c>
@@ -6086,32 +6082,32 @@
       <c r="G28" s="76"/>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="140" t="s">
+      <c r="J28" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="142"/>
-      <c r="L28" s="140" t="s">
+      <c r="K28" s="128"/>
+      <c r="L28" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="141"/>
-      <c r="W28" s="141"/>
-      <c r="X28" s="142"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="129"/>
+      <c r="V28" s="129"/>
+      <c r="W28" s="129"/>
+      <c r="X28" s="128"/>
       <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:25" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
       <c r="E29" s="21"/>
       <c r="F29" s="112"/>
       <c r="G29" s="112"/>
@@ -6138,9 +6134,9 @@
     </row>
     <row r="30" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
       <c r="E30" s="20" t="s">
         <v>24</v>
       </c>
@@ -6169,9 +6165,9 @@
     </row>
     <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
       <c r="E31" s="21" t="s">
         <v>23</v>
       </c>
@@ -6200,9 +6196,9 @@
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="20" t="s">
         <v>19</v>
       </c>
@@ -6231,9 +6227,9 @@
     </row>
     <row r="33" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
       <c r="E33" s="21"/>
       <c r="F33" s="112"/>
       <c r="G33" s="112"/>
@@ -6504,24 +6500,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:X28"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="P25:S26"/>
-    <mergeCell ref="U25:X26"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="J20:M21"/>
-    <mergeCell ref="P20:S21"/>
+    <mergeCell ref="T9:X10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="M7:P8"/>
+    <mergeCell ref="T8:X8"/>
     <mergeCell ref="C11:F12"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="P12:S12"/>
@@ -6531,13 +6516,24 @@
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="J16:M17"/>
     <mergeCell ref="P16:S17"/>
-    <mergeCell ref="T9:X10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="C7:F8"/>
-    <mergeCell ref="M7:P8"/>
-    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="J20:M21"/>
+    <mergeCell ref="P20:S21"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="P25:S26"/>
+    <mergeCell ref="U25:X26"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:X28"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B32:D33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6559,8 +6555,8 @@
   </sheetPr>
   <dimension ref="A1:AW70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" workbookViewId="0">
-      <selection activeCell="AM62" sqref="AM62"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6619,92 +6615,92 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="252"/>
+      <c r="D3" s="255" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="152" t="s">
+      <c r="E3" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="154" t="s">
+      <c r="F3" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="155"/>
+      <c r="G3" s="260"/>
       <c r="H3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="241" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156" t="s">
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
+      <c r="N3" s="241" t="s">
         <v>150</v>
       </c>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156" t="s">
+      <c r="O3" s="241"/>
+      <c r="P3" s="241"/>
+      <c r="Q3" s="241"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="241" t="s">
         <v>151</v>
       </c>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156" t="s">
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241" t="s">
         <v>152</v>
       </c>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156" t="s">
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="241"/>
+      <c r="AA3" s="241"/>
+      <c r="AB3" s="241"/>
+      <c r="AC3" s="241" t="s">
         <v>153</v>
       </c>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="156" t="s">
+      <c r="AD3" s="241"/>
+      <c r="AE3" s="241"/>
+      <c r="AF3" s="241"/>
+      <c r="AG3" s="241"/>
+      <c r="AH3" s="241" t="s">
         <v>154</v>
       </c>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="156"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="156"/>
-      <c r="AM3" s="156" t="s">
+      <c r="AI3" s="241"/>
+      <c r="AJ3" s="241"/>
+      <c r="AK3" s="241"/>
+      <c r="AL3" s="241"/>
+      <c r="AM3" s="241" t="s">
         <v>155</v>
       </c>
-      <c r="AN3" s="156"/>
-      <c r="AO3" s="156"/>
-      <c r="AP3" s="156"/>
-      <c r="AQ3" s="156"/>
-      <c r="AR3" s="156" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS3" s="156"/>
-      <c r="AT3" s="156"/>
-      <c r="AU3" s="156"/>
-      <c r="AV3" s="156"/>
-      <c r="AW3" s="157" t="s">
+      <c r="AN3" s="241"/>
+      <c r="AO3" s="241"/>
+      <c r="AP3" s="241"/>
+      <c r="AQ3" s="241"/>
+      <c r="AR3" s="241" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS3" s="241"/>
+      <c r="AT3" s="241"/>
+      <c r="AU3" s="241"/>
+      <c r="AV3" s="241"/>
+      <c r="AW3" s="239" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="148"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="159" t="s">
+      <c r="B4" s="253"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="160"/>
+      <c r="G4" s="243"/>
       <c r="H4" s="59" t="s">
         <v>31</v>
       </c>
@@ -6828,7 +6824,7 @@
       <c r="AV4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AW4" s="158"/>
+      <c r="AW4" s="240"/>
     </row>
     <row r="5" spans="1:49" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="28">
@@ -6838,16 +6834,16 @@
       <c r="D5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="161" t="s">
+      <c r="E5" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="164" t="s">
+      <c r="F5" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="167" t="s">
+      <c r="G5" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="170" t="s">
+      <c r="H5" s="248" t="s">
         <v>95</v>
       </c>
       <c r="I5" s="60"/>
@@ -6890,16 +6886,16 @@
       <c r="AT5" s="36"/>
       <c r="AU5" s="36"/>
       <c r="AV5" s="44"/>
-      <c r="AW5" s="173"/>
+      <c r="AW5" s="195"/>
     </row>
     <row r="6" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="28"/>
       <c r="C6" s="29"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="171"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="249"/>
       <c r="I6" s="70"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -6940,16 +6936,16 @@
       <c r="AT6" s="36"/>
       <c r="AU6" s="36"/>
       <c r="AV6" s="44"/>
-      <c r="AW6" s="174"/>
+      <c r="AW6" s="167"/>
     </row>
     <row r="7" spans="1:49" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="172"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="250"/>
       <c r="I7" s="61"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50" t="s">
@@ -6996,7 +6992,7 @@
       <c r="AT7" s="50"/>
       <c r="AU7" s="50"/>
       <c r="AV7" s="51"/>
-      <c r="AW7" s="175"/>
+      <c r="AW7" s="196"/>
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="32">
@@ -7006,16 +7002,16 @@
       <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="176" t="s">
+      <c r="E8" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="231" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="180" t="s">
+      <c r="G8" s="232" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="181" t="s">
+      <c r="H8" s="199" t="s">
         <v>115</v>
       </c>
       <c r="I8" s="62"/>
@@ -7058,21 +7054,21 @@
       <c r="AT8" s="34"/>
       <c r="AU8" s="34"/>
       <c r="AV8" s="35"/>
-      <c r="AW8" s="182"/>
+      <c r="AW8" s="219"/>
     </row>
     <row r="9" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="162"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="60"/>
       <c r="J9" s="71"/>
       <c r="K9" s="71"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="44"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="60"/>
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
@@ -7108,16 +7104,16 @@
       <c r="AT9" s="36"/>
       <c r="AU9" s="36"/>
       <c r="AV9" s="44"/>
-      <c r="AW9" s="174"/>
+      <c r="AW9" s="167"/>
     </row>
     <row r="10" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="28"/>
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="177"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="170"/>
       <c r="I10" s="63"/>
       <c r="J10" s="39"/>
       <c r="L10" s="39" t="s">
@@ -7161,7 +7157,7 @@
       <c r="AT10" s="39"/>
       <c r="AU10" s="39"/>
       <c r="AV10" s="40"/>
-      <c r="AW10" s="183"/>
+      <c r="AW10" s="202"/>
     </row>
     <row r="11" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="28"/>
@@ -7171,16 +7167,16 @@
       <c r="D11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="184" t="s">
+      <c r="E11" s="233" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="186" t="s">
+      <c r="F11" s="234" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="189" t="s">
+      <c r="G11" s="236" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="192" t="s">
+      <c r="H11" s="238" t="s">
         <v>67</v>
       </c>
       <c r="I11" s="64"/>
@@ -7223,16 +7219,16 @@
       <c r="AT11" s="42"/>
       <c r="AU11" s="42"/>
       <c r="AV11" s="43"/>
-      <c r="AW11" s="173"/>
+      <c r="AW11" s="195"/>
     </row>
     <row r="12" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="193"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="184"/>
       <c r="I12" s="60"/>
       <c r="J12" s="71"/>
       <c r="K12" s="71"/>
@@ -7273,16 +7269,16 @@
       <c r="AT12" s="36"/>
       <c r="AU12" s="36"/>
       <c r="AV12" s="44"/>
-      <c r="AW12" s="195"/>
+      <c r="AW12" s="158"/>
     </row>
     <row r="13" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="28"/>
       <c r="C13" s="46"/>
       <c r="D13" s="47"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="194"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="185"/>
       <c r="I13" s="65"/>
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
@@ -7323,7 +7319,7 @@
       <c r="AT13" s="48"/>
       <c r="AU13" s="48"/>
       <c r="AV13" s="49"/>
-      <c r="AW13" s="196"/>
+      <c r="AW13" s="159"/>
     </row>
     <row r="14" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="28"/>
@@ -7333,16 +7329,16 @@
       <c r="D14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="197" t="s">
+      <c r="F14" s="221" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="199" t="s">
+      <c r="G14" s="223" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="201" t="s">
+      <c r="H14" s="183" t="s">
         <v>122</v>
       </c>
       <c r="I14" s="60"/>
@@ -7385,16 +7381,16 @@
       <c r="AT14" s="36"/>
       <c r="AU14" s="36"/>
       <c r="AV14" s="44"/>
-      <c r="AW14" s="195"/>
+      <c r="AW14" s="158"/>
     </row>
     <row r="15" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="202"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="225"/>
       <c r="I15" s="60"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -7435,26 +7431,26 @@
       <c r="AT15" s="36"/>
       <c r="AU15" s="36"/>
       <c r="AV15" s="44"/>
-      <c r="AW15" s="195"/>
+      <c r="AW15" s="158"/>
     </row>
     <row r="16" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="203"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="226"/>
       <c r="I16" s="61"/>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="50" t="s">
         <v>62</v>
       </c>
       <c r="M16" s="51"/>
       <c r="N16" s="61"/>
       <c r="O16" s="50"/>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="50" t="s">
         <v>62</v>
       </c>
       <c r="Q16" s="50"/>
@@ -7489,7 +7485,7 @@
       <c r="AT16" s="50"/>
       <c r="AU16" s="50"/>
       <c r="AV16" s="51"/>
-      <c r="AW16" s="204"/>
+      <c r="AW16" s="227"/>
     </row>
     <row r="17" spans="2:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="28">
@@ -7499,16 +7495,16 @@
       <c r="D17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="161" t="s">
+      <c r="E17" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="197" t="s">
+      <c r="F17" s="221" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="199" t="s">
+      <c r="G17" s="223" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="201" t="s">
+      <c r="H17" s="183" t="s">
         <v>123</v>
       </c>
       <c r="I17" s="60"/>
@@ -7551,26 +7547,26 @@
       <c r="AT17" s="36"/>
       <c r="AU17" s="36"/>
       <c r="AV17" s="44"/>
-      <c r="AW17" s="208"/>
+      <c r="AW17" s="230"/>
     </row>
     <row r="18" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="162"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="150"/>
       <c r="I18" s="60"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
       <c r="M18" s="44"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="72"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="44"/>
       <c r="S18" s="70"/>
       <c r="T18" s="71"/>
       <c r="U18" s="71"/>
@@ -7601,16 +7597,16 @@
       <c r="AT18" s="36"/>
       <c r="AU18" s="36"/>
       <c r="AV18" s="44"/>
-      <c r="AW18" s="174"/>
+      <c r="AW18" s="167"/>
     </row>
     <row r="19" spans="2:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="163"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="189"/>
       <c r="I19" s="61"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
@@ -7651,7 +7647,7 @@
       <c r="AT19" s="50"/>
       <c r="AU19" s="50"/>
       <c r="AV19" s="51"/>
-      <c r="AW19" s="175"/>
+      <c r="AW19" s="196"/>
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B20" s="32">
@@ -7661,14 +7657,14 @@
       <c r="D20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="176" t="s">
+      <c r="E20" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="209" t="s">
+      <c r="F20" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="210"/>
-      <c r="H20" s="211" t="s">
+      <c r="G20" s="198"/>
+      <c r="H20" s="218" t="s">
         <v>126</v>
       </c>
       <c r="I20" s="62"/>
@@ -7711,16 +7707,16 @@
       <c r="AT20" s="34"/>
       <c r="AU20" s="34"/>
       <c r="AV20" s="35"/>
-      <c r="AW20" s="182"/>
+      <c r="AW20" s="219"/>
     </row>
     <row r="21" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="28"/>
       <c r="C21" s="29"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="193"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="184"/>
       <c r="I21" s="60"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
@@ -7761,16 +7757,16 @@
       <c r="AT21" s="36"/>
       <c r="AU21" s="36"/>
       <c r="AV21" s="44"/>
-      <c r="AW21" s="213"/>
+      <c r="AW21" s="187"/>
     </row>
     <row r="22" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B22" s="28"/>
       <c r="C22" s="37"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="212"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="217"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="200"/>
       <c r="I22" s="63"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
@@ -7811,7 +7807,7 @@
       <c r="AT22" s="39"/>
       <c r="AU22" s="39"/>
       <c r="AV22" s="40"/>
-      <c r="AW22" s="214"/>
+      <c r="AW22" s="220"/>
     </row>
     <row r="23" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="28"/>
@@ -7821,14 +7817,14 @@
       <c r="D23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="161" t="s">
+      <c r="E23" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="179" t="s">
+      <c r="F23" s="217" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="168"/>
-      <c r="H23" s="217" t="s">
+      <c r="G23" s="181"/>
+      <c r="H23" s="209" t="s">
         <v>75</v>
       </c>
       <c r="I23" s="60"/>
@@ -7871,16 +7867,16 @@
       <c r="AT23" s="36"/>
       <c r="AU23" s="36"/>
       <c r="AV23" s="44"/>
-      <c r="AW23" s="218"/>
+      <c r="AW23" s="186"/>
     </row>
     <row r="24" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="193"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="184"/>
       <c r="I24" s="60"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
@@ -7894,8 +7890,8 @@
       <c r="S24" s="70"/>
       <c r="T24" s="71"/>
       <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="44"/>
       <c r="X24" s="60"/>
       <c r="Y24" s="36"/>
       <c r="Z24" s="36"/>
@@ -7921,16 +7917,16 @@
       <c r="AT24" s="36"/>
       <c r="AU24" s="36"/>
       <c r="AV24" s="44"/>
-      <c r="AW24" s="174"/>
+      <c r="AW24" s="167"/>
     </row>
     <row r="25" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="28"/>
       <c r="C25" s="46"/>
       <c r="D25" s="47"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="215"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="194"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="185"/>
       <c r="I25" s="65"/>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
@@ -7971,7 +7967,7 @@
       <c r="AT25" s="48"/>
       <c r="AU25" s="48"/>
       <c r="AV25" s="49"/>
-      <c r="AW25" s="219"/>
+      <c r="AW25" s="207"/>
     </row>
     <row r="26" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="28"/>
@@ -7981,16 +7977,16 @@
       <c r="D26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="161" t="s">
+      <c r="E26" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="220" t="s">
+      <c r="F26" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="222" t="s">
+      <c r="G26" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="217"/>
+      <c r="H26" s="209"/>
       <c r="I26" s="60"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
@@ -8031,16 +8027,16 @@
       <c r="AT26" s="36"/>
       <c r="AU26" s="36"/>
       <c r="AV26" s="44"/>
-      <c r="AW26" s="218"/>
+      <c r="AW26" s="186"/>
     </row>
     <row r="27" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="193"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="184"/>
       <c r="I27" s="60"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
@@ -8061,10 +8057,10 @@
       <c r="Z27" s="71"/>
       <c r="AA27" s="71"/>
       <c r="AB27" s="72"/>
-      <c r="AC27" s="70"/>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="71"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
       <c r="AG27" s="44"/>
       <c r="AH27" s="60"/>
       <c r="AI27" s="36"/>
@@ -8081,16 +8077,16 @@
       <c r="AT27" s="36"/>
       <c r="AU27" s="36"/>
       <c r="AV27" s="44"/>
-      <c r="AW27" s="213"/>
+      <c r="AW27" s="187"/>
     </row>
     <row r="28" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="28"/>
       <c r="C28" s="46"/>
       <c r="D28" s="47"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="224"/>
-      <c r="H28" s="194"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="185"/>
       <c r="I28" s="65"/>
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
@@ -8107,15 +8103,13 @@
       <c r="V28" s="48"/>
       <c r="W28" s="49"/>
       <c r="X28" s="65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y28" s="48"/>
       <c r="Z28" s="48"/>
       <c r="AA28" s="48"/>
       <c r="AB28" s="49"/>
-      <c r="AC28" s="65" t="s">
-        <v>159</v>
-      </c>
+      <c r="AC28" s="65"/>
       <c r="AD28" s="48"/>
       <c r="AE28" s="48"/>
       <c r="AF28" s="48"/>
@@ -8135,7 +8129,7 @@
       <c r="AT28" s="48"/>
       <c r="AU28" s="48"/>
       <c r="AV28" s="49"/>
-      <c r="AW28" s="225"/>
+      <c r="AW28" s="188"/>
     </row>
     <row r="29" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="28"/>
@@ -8145,16 +8139,16 @@
       <c r="D29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="161" t="s">
+      <c r="E29" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="226" t="s">
+      <c r="F29" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="228" t="s">
+      <c r="G29" s="211" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="217"/>
+      <c r="H29" s="209"/>
       <c r="I29" s="60"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -8195,16 +8189,16 @@
       <c r="AT29" s="36"/>
       <c r="AU29" s="36"/>
       <c r="AV29" s="44"/>
-      <c r="AW29" s="232"/>
+      <c r="AW29" s="157"/>
     </row>
     <row r="30" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="229"/>
-      <c r="H30" s="193"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="184"/>
       <c r="I30" s="60"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -8224,16 +8218,16 @@
       <c r="Z30" s="36"/>
       <c r="AA30" s="36"/>
       <c r="AB30" s="44"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
       <c r="AG30" s="72"/>
-      <c r="AH30" s="70"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="71"/>
-      <c r="AL30" s="72"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="44"/>
       <c r="AM30" s="60"/>
       <c r="AN30" s="36"/>
       <c r="AO30" s="36"/>
@@ -8244,16 +8238,16 @@
       <c r="AT30" s="36"/>
       <c r="AU30" s="36"/>
       <c r="AV30" s="44"/>
-      <c r="AW30" s="213"/>
+      <c r="AW30" s="187"/>
     </row>
     <row r="31" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="230"/>
-      <c r="H31" s="231"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="214"/>
       <c r="I31" s="61"/>
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
@@ -8278,13 +8272,13 @@
       <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
-      <c r="AG31" s="51"/>
+      <c r="AG31" s="50" t="s">
+        <v>50</v>
+      </c>
       <c r="AH31" s="61"/>
       <c r="AI31" s="50"/>
       <c r="AJ31" s="50"/>
-      <c r="AK31" s="50" t="s">
-        <v>50</v>
-      </c>
+      <c r="AK31" s="50"/>
       <c r="AL31" s="51"/>
       <c r="AM31" s="61"/>
       <c r="AN31" s="50"/>
@@ -8296,7 +8290,7 @@
       <c r="AT31" s="50"/>
       <c r="AU31" s="50"/>
       <c r="AV31" s="51"/>
-      <c r="AW31" s="233"/>
+      <c r="AW31" s="215"/>
     </row>
     <row r="32" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B32" s="32">
@@ -8306,10 +8300,10 @@
       <c r="D32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="176"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="181"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="199"/>
       <c r="I32" s="62"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
@@ -8350,16 +8344,16 @@
       <c r="AT32" s="34"/>
       <c r="AU32" s="34"/>
       <c r="AV32" s="35"/>
-      <c r="AW32" s="235"/>
+      <c r="AW32" s="201"/>
     </row>
     <row r="33" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="193"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="184"/>
       <c r="I33" s="60"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -8400,16 +8394,16 @@
       <c r="AT33" s="36"/>
       <c r="AU33" s="36"/>
       <c r="AV33" s="44"/>
-      <c r="AW33" s="174"/>
+      <c r="AW33" s="167"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B34" s="28"/>
       <c r="C34" s="37"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="212"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="200"/>
       <c r="I34" s="63"/>
       <c r="J34" s="39"/>
       <c r="K34" s="39"/>
@@ -8450,7 +8444,7 @@
       <c r="AT34" s="39"/>
       <c r="AU34" s="39"/>
       <c r="AV34" s="40"/>
-      <c r="AW34" s="183"/>
+      <c r="AW34" s="202"/>
     </row>
     <row r="35" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="28"/>
@@ -8460,16 +8454,16 @@
       <c r="D35" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="161" t="s">
+      <c r="E35" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="236" t="s">
+      <c r="F35" s="203" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="216" t="s">
+      <c r="G35" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="239" t="s">
+      <c r="H35" s="204" t="s">
         <v>81</v>
       </c>
       <c r="I35" s="60"/>
@@ -8512,16 +8506,16 @@
       <c r="AT35" s="36"/>
       <c r="AU35" s="36"/>
       <c r="AV35" s="44"/>
-      <c r="AW35" s="173"/>
+      <c r="AW35" s="195"/>
     </row>
     <row r="36" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="237"/>
-      <c r="G36" s="238"/>
-      <c r="H36" s="240"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="205"/>
       <c r="I36" s="60"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
@@ -8537,18 +8531,18 @@
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
       <c r="W36" s="44"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="70"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="70"/>
-      <c r="AI36" s="71"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="36"/>
       <c r="AJ36" s="36"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="44"/>
@@ -8562,16 +8556,16 @@
       <c r="AT36" s="36"/>
       <c r="AU36" s="36"/>
       <c r="AV36" s="44"/>
-      <c r="AW36" s="174"/>
+      <c r="AW36" s="167"/>
     </row>
     <row r="37" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="28"/>
       <c r="C37" s="46"/>
       <c r="D37" s="47"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="237"/>
-      <c r="G37" s="238"/>
-      <c r="H37" s="241"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="206"/>
       <c r="I37" s="65"/>
       <c r="J37" s="48"/>
       <c r="K37" s="48"/>
@@ -8612,7 +8606,7 @@
       <c r="AT37" s="48"/>
       <c r="AU37" s="48"/>
       <c r="AV37" s="49"/>
-      <c r="AW37" s="219"/>
+      <c r="AW37" s="207"/>
     </row>
     <row r="38" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="28"/>
@@ -8622,14 +8616,14 @@
       <c r="D38" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="161" t="s">
+      <c r="E38" s="149" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="215" t="s">
+      <c r="F38" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="216"/>
-      <c r="H38" s="201" t="s">
+      <c r="G38" s="182"/>
+      <c r="H38" s="183" t="s">
         <v>128</v>
       </c>
       <c r="I38" s="60"/>
@@ -8672,16 +8666,16 @@
       <c r="AT38" s="36"/>
       <c r="AU38" s="36"/>
       <c r="AV38" s="44"/>
-      <c r="AW38" s="218"/>
+      <c r="AW38" s="186"/>
     </row>
     <row r="39" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
       <c r="D39" s="22"/>
-      <c r="E39" s="162"/>
-      <c r="F39" s="237"/>
-      <c r="G39" s="238"/>
-      <c r="H39" s="193"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="184"/>
       <c r="I39" s="60"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -8722,16 +8716,16 @@
       <c r="AT39" s="36"/>
       <c r="AU39" s="36"/>
       <c r="AV39" s="44"/>
-      <c r="AW39" s="213"/>
+      <c r="AW39" s="187"/>
     </row>
     <row r="40" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="28"/>
       <c r="C40" s="46"/>
       <c r="D40" s="47"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="237"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="194"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="185"/>
       <c r="I40" s="65"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
@@ -8772,7 +8766,7 @@
       <c r="AT40" s="48"/>
       <c r="AU40" s="48"/>
       <c r="AV40" s="49"/>
-      <c r="AW40" s="225"/>
+      <c r="AW40" s="188"/>
     </row>
     <row r="41" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="73"/>
@@ -8782,16 +8776,16 @@
       <c r="D41" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="161" t="s">
+      <c r="E41" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="237" t="s">
+      <c r="F41" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="238" t="s">
+      <c r="G41" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="H41" s="244"/>
+      <c r="H41" s="192"/>
       <c r="I41" s="60"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -8813,14 +8807,14 @@
       <c r="AA41" s="36"/>
       <c r="AB41" s="44"/>
       <c r="AC41" s="60"/>
-      <c r="AD41" s="36"/>
+      <c r="AD41" s="36" t="s">
+        <v>35</v>
+      </c>
       <c r="AE41" s="36"/>
       <c r="AF41" s="36"/>
       <c r="AG41" s="44"/>
       <c r="AH41" s="60"/>
-      <c r="AI41" s="36" t="s">
-        <v>35</v>
-      </c>
+      <c r="AI41" s="36"/>
       <c r="AJ41" s="36"/>
       <c r="AK41" s="36"/>
       <c r="AL41" s="44"/>
@@ -8834,16 +8828,16 @@
       <c r="AT41" s="36"/>
       <c r="AU41" s="36"/>
       <c r="AV41" s="44"/>
-      <c r="AW41" s="173"/>
+      <c r="AW41" s="195"/>
     </row>
     <row r="42" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="73"/>
       <c r="C42" s="29"/>
       <c r="D42" s="22"/>
-      <c r="E42" s="162"/>
-      <c r="F42" s="237"/>
-      <c r="G42" s="238"/>
-      <c r="H42" s="245"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="193"/>
       <c r="I42" s="60"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
@@ -8865,12 +8859,12 @@
       <c r="AA42" s="36"/>
       <c r="AB42" s="44"/>
       <c r="AC42" s="60"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
+      <c r="AD42" s="71"/>
+      <c r="AE42" s="71"/>
       <c r="AF42" s="36"/>
       <c r="AG42" s="44"/>
-      <c r="AH42" s="107"/>
-      <c r="AI42" s="107"/>
+      <c r="AH42" s="60"/>
+      <c r="AI42" s="36"/>
       <c r="AJ42" s="36"/>
       <c r="AK42" s="109"/>
       <c r="AL42" s="110"/>
@@ -8884,16 +8878,16 @@
       <c r="AT42" s="36"/>
       <c r="AU42" s="36"/>
       <c r="AV42" s="44"/>
-      <c r="AW42" s="174"/>
+      <c r="AW42" s="167"/>
     </row>
     <row r="43" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="74"/>
       <c r="C43" s="31"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="242"/>
-      <c r="G43" s="243"/>
-      <c r="H43" s="246"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="194"/>
       <c r="I43" s="61"/>
       <c r="J43" s="50"/>
       <c r="K43" s="50"/>
@@ -8934,7 +8928,7 @@
       <c r="AT43" s="50"/>
       <c r="AU43" s="50"/>
       <c r="AV43" s="51"/>
-      <c r="AW43" s="175"/>
+      <c r="AW43" s="196"/>
     </row>
     <row r="44" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B44" s="32">
@@ -8944,10 +8938,10 @@
       <c r="D44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="176"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="248"/>
-      <c r="H44" s="176"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="169"/>
       <c r="I44" s="62"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
@@ -8988,16 +8982,16 @@
       <c r="AT44" s="34"/>
       <c r="AU44" s="34"/>
       <c r="AV44" s="35"/>
-      <c r="AW44" s="249"/>
+      <c r="AW44" s="177"/>
     </row>
     <row r="45" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="28"/>
       <c r="C45" s="29"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="190"/>
-      <c r="H45" s="162"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="150"/>
       <c r="I45" s="60"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -9038,16 +9032,16 @@
       <c r="AT45" s="36"/>
       <c r="AU45" s="36"/>
       <c r="AV45" s="44"/>
-      <c r="AW45" s="250"/>
+      <c r="AW45" s="178"/>
     </row>
     <row r="46" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B46" s="45"/>
       <c r="C46" s="37"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="207"/>
-      <c r="H46" s="177"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="170"/>
       <c r="I46" s="63"/>
       <c r="J46" s="39"/>
       <c r="K46" s="39"/>
@@ -9088,7 +9082,7 @@
       <c r="AT46" s="39"/>
       <c r="AU46" s="39"/>
       <c r="AV46" s="40"/>
-      <c r="AW46" s="251"/>
+      <c r="AW46" s="179"/>
     </row>
     <row r="47" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="28"/>
@@ -9098,16 +9092,16 @@
       <c r="D47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="161" t="s">
+      <c r="E47" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="215" t="s">
+      <c r="F47" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="168" t="s">
+      <c r="G47" s="181" t="s">
         <v>109</v>
       </c>
-      <c r="H47" s="161"/>
+      <c r="H47" s="149"/>
       <c r="I47" s="60"/>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -9151,16 +9145,16 @@
       <c r="AT47" s="36"/>
       <c r="AU47" s="36"/>
       <c r="AV47" s="44"/>
-      <c r="AW47" s="195"/>
+      <c r="AW47" s="158"/>
     </row>
     <row r="48" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="28"/>
       <c r="C48" s="29"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="162"/>
-      <c r="F48" s="237"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="162"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="181"/>
+      <c r="H48" s="150"/>
       <c r="I48" s="60"/>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
@@ -9201,16 +9195,16 @@
       <c r="AT48" s="36"/>
       <c r="AU48" s="36"/>
       <c r="AV48" s="44"/>
-      <c r="AW48" s="195"/>
+      <c r="AW48" s="158"/>
     </row>
     <row r="49" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="45"/>
       <c r="C49" s="46"/>
       <c r="D49" s="47"/>
-      <c r="E49" s="185"/>
-      <c r="F49" s="237"/>
-      <c r="G49" s="216"/>
-      <c r="H49" s="185"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="163"/>
+      <c r="G49" s="182"/>
+      <c r="H49" s="151"/>
       <c r="I49" s="65"/>
       <c r="J49" s="48"/>
       <c r="K49" s="48"/>
@@ -9251,7 +9245,7 @@
       <c r="AT49" s="48"/>
       <c r="AU49" s="48"/>
       <c r="AV49" s="49"/>
-      <c r="AW49" s="196"/>
+      <c r="AW49" s="159"/>
     </row>
     <row r="50" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="28"/>
@@ -9261,14 +9255,14 @@
       <c r="D50" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="161"/>
-      <c r="F50" s="165" t="s">
+      <c r="E50" s="149"/>
+      <c r="F50" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="223" t="s">
+      <c r="G50" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="H50" s="161"/>
+      <c r="H50" s="149"/>
       <c r="I50" s="60"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
@@ -9311,16 +9305,16 @@
       <c r="AT50" s="36"/>
       <c r="AU50" s="36"/>
       <c r="AV50" s="44"/>
-      <c r="AW50" s="232"/>
+      <c r="AW50" s="157"/>
     </row>
     <row r="51" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="28"/>
       <c r="C51" s="29"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="223"/>
-      <c r="H51" s="162"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="150"/>
       <c r="I51" s="60"/>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
@@ -9361,16 +9355,16 @@
       <c r="AT51" s="36"/>
       <c r="AU51" s="36"/>
       <c r="AV51" s="44"/>
-      <c r="AW51" s="195"/>
+      <c r="AW51" s="158"/>
     </row>
     <row r="52" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="45"/>
       <c r="C52" s="46"/>
       <c r="D52" s="47"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="224"/>
-      <c r="H52" s="185"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="151"/>
       <c r="I52" s="65"/>
       <c r="J52" s="48"/>
       <c r="K52" s="48"/>
@@ -9411,7 +9405,7 @@
       <c r="AT52" s="48"/>
       <c r="AU52" s="48"/>
       <c r="AV52" s="49"/>
-      <c r="AW52" s="196"/>
+      <c r="AW52" s="159"/>
     </row>
     <row r="53" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="28"/>
@@ -9421,16 +9415,16 @@
       <c r="D53" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="161" t="s">
+      <c r="E53" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="165" t="s">
+      <c r="F53" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="222" t="s">
+      <c r="G53" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="H53" s="161"/>
+      <c r="H53" s="149"/>
       <c r="I53" s="60"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -9472,16 +9466,16 @@
       <c r="AT53" s="36"/>
       <c r="AU53" s="36"/>
       <c r="AV53" s="44"/>
-      <c r="AW53" s="232"/>
+      <c r="AW53" s="157"/>
     </row>
     <row r="54" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="28"/>
       <c r="C54" s="29"/>
       <c r="D54" s="22"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="223"/>
-      <c r="H54" s="162"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="152"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="150"/>
       <c r="I54" s="60"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -9522,16 +9516,16 @@
       <c r="AT54" s="36"/>
       <c r="AU54" s="36"/>
       <c r="AV54" s="44"/>
-      <c r="AW54" s="195"/>
+      <c r="AW54" s="158"/>
     </row>
     <row r="55" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="45"/>
       <c r="C55" s="46"/>
       <c r="D55" s="47"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="221"/>
-      <c r="G55" s="224"/>
-      <c r="H55" s="185"/>
+      <c r="E55" s="151"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="151"/>
       <c r="I55" s="65"/>
       <c r="J55" s="48"/>
       <c r="K55" s="48"/>
@@ -9572,7 +9566,7 @@
       <c r="AT55" s="48"/>
       <c r="AU55" s="48"/>
       <c r="AV55" s="49"/>
-      <c r="AW55" s="196"/>
+      <c r="AW55" s="159"/>
     </row>
     <row r="56" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="28"/>
@@ -9582,16 +9576,16 @@
       <c r="D56" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="161" t="s">
+      <c r="E56" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="165" t="s">
+      <c r="F56" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="223" t="s">
+      <c r="G56" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="H56" s="161"/>
+      <c r="H56" s="149"/>
       <c r="I56" s="60"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
@@ -9623,7 +9617,7 @@
       <c r="AK56" s="36"/>
       <c r="AL56" s="44"/>
       <c r="AM56" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN56" s="36"/>
       <c r="AO56" s="36"/>
@@ -9634,16 +9628,16 @@
       <c r="AT56" s="36"/>
       <c r="AU56" s="36"/>
       <c r="AV56" s="44"/>
-      <c r="AW56" s="195"/>
+      <c r="AW56" s="158"/>
     </row>
     <row r="57" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="223"/>
-      <c r="H57" s="162"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="150"/>
       <c r="I57" s="60"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
@@ -9684,16 +9678,16 @@
       <c r="AT57" s="36"/>
       <c r="AU57" s="36"/>
       <c r="AV57" s="44"/>
-      <c r="AW57" s="195"/>
+      <c r="AW57" s="158"/>
     </row>
     <row r="58" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="45"/>
       <c r="C58" s="46"/>
       <c r="D58" s="47"/>
-      <c r="E58" s="185"/>
-      <c r="F58" s="221"/>
-      <c r="G58" s="224"/>
-      <c r="H58" s="185"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="151"/>
       <c r="I58" s="65"/>
       <c r="J58" s="48"/>
       <c r="K58" s="48"/>
@@ -9734,7 +9728,7 @@
       <c r="AT58" s="48"/>
       <c r="AU58" s="48"/>
       <c r="AV58" s="49"/>
-      <c r="AW58" s="196"/>
+      <c r="AW58" s="159"/>
     </row>
     <row r="59" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="28"/>
@@ -9744,16 +9738,16 @@
       <c r="D59" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="161" t="s">
+      <c r="E59" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="237" t="s">
+      <c r="F59" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="G59" s="238" t="s">
+      <c r="G59" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="162"/>
+      <c r="H59" s="150"/>
       <c r="I59" s="60"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
@@ -9794,16 +9788,16 @@
       <c r="AT59" s="36"/>
       <c r="AU59" s="36"/>
       <c r="AV59" s="44"/>
-      <c r="AW59" s="174"/>
+      <c r="AW59" s="167"/>
     </row>
     <row r="60" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="D60" s="22"/>
-      <c r="E60" s="162"/>
-      <c r="F60" s="237"/>
-      <c r="G60" s="238"/>
-      <c r="H60" s="162"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="163"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="150"/>
       <c r="I60" s="60"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
@@ -9844,16 +9838,16 @@
       <c r="AT60" s="71"/>
       <c r="AU60" s="71"/>
       <c r="AV60" s="72"/>
-      <c r="AW60" s="174"/>
+      <c r="AW60" s="167"/>
     </row>
     <row r="61" spans="1:49" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B61" s="52"/>
       <c r="C61" s="53"/>
       <c r="D61" s="54"/>
-      <c r="E61" s="252"/>
-      <c r="F61" s="253"/>
-      <c r="G61" s="254"/>
-      <c r="H61" s="252"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="166"/>
+      <c r="H61" s="162"/>
       <c r="I61" s="66"/>
       <c r="J61" s="67"/>
       <c r="K61" s="67"/>
@@ -9894,61 +9888,61 @@
       <c r="AT61" s="67"/>
       <c r="AU61" s="67"/>
       <c r="AV61" s="68"/>
-      <c r="AW61" s="255"/>
+      <c r="AW61" s="168"/>
     </row>
     <row r="62" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="76"/>
-      <c r="B63" s="256" t="s">
+      <c r="B63" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="257"/>
-      <c r="D63" s="257"/>
-      <c r="E63" s="257"/>
-      <c r="F63" s="257"/>
-      <c r="G63" s="257"/>
-      <c r="H63" s="258"/>
-      <c r="I63" s="259" t="s">
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="J63" s="257"/>
-      <c r="K63" s="257"/>
-      <c r="L63" s="257"/>
-      <c r="M63" s="257"/>
-      <c r="N63" s="257"/>
-      <c r="O63" s="257"/>
-      <c r="P63" s="257"/>
-      <c r="Q63" s="257"/>
-      <c r="R63" s="257"/>
-      <c r="S63" s="257"/>
-      <c r="T63" s="257"/>
-      <c r="U63" s="257"/>
-      <c r="V63" s="257"/>
-      <c r="W63" s="257"/>
-      <c r="X63" s="257"/>
-      <c r="Y63" s="257"/>
-      <c r="Z63" s="257"/>
-      <c r="AA63" s="257"/>
-      <c r="AB63" s="257"/>
-      <c r="AC63" s="257"/>
-      <c r="AD63" s="257"/>
-      <c r="AE63" s="257"/>
-      <c r="AF63" s="257"/>
-      <c r="AG63" s="257"/>
-      <c r="AH63" s="257"/>
-      <c r="AI63" s="257"/>
-      <c r="AJ63" s="257"/>
-      <c r="AK63" s="257"/>
-      <c r="AL63" s="257"/>
-      <c r="AM63" s="257"/>
-      <c r="AN63" s="257"/>
-      <c r="AO63" s="257"/>
-      <c r="AP63" s="257"/>
-      <c r="AQ63" s="257"/>
-      <c r="AR63" s="257"/>
-      <c r="AS63" s="257"/>
-      <c r="AT63" s="257"/>
-      <c r="AU63" s="260"/>
+      <c r="J63" s="147"/>
+      <c r="K63" s="147"/>
+      <c r="L63" s="147"/>
+      <c r="M63" s="147"/>
+      <c r="N63" s="147"/>
+      <c r="O63" s="147"/>
+      <c r="P63" s="147"/>
+      <c r="Q63" s="147"/>
+      <c r="R63" s="147"/>
+      <c r="S63" s="147"/>
+      <c r="T63" s="147"/>
+      <c r="U63" s="147"/>
+      <c r="V63" s="147"/>
+      <c r="W63" s="147"/>
+      <c r="X63" s="147"/>
+      <c r="Y63" s="147"/>
+      <c r="Z63" s="147"/>
+      <c r="AA63" s="147"/>
+      <c r="AB63" s="147"/>
+      <c r="AC63" s="147"/>
+      <c r="AD63" s="147"/>
+      <c r="AE63" s="147"/>
+      <c r="AF63" s="147"/>
+      <c r="AG63" s="147"/>
+      <c r="AH63" s="147"/>
+      <c r="AI63" s="147"/>
+      <c r="AJ63" s="147"/>
+      <c r="AK63" s="147"/>
+      <c r="AL63" s="147"/>
+      <c r="AM63" s="147"/>
+      <c r="AN63" s="147"/>
+      <c r="AO63" s="147"/>
+      <c r="AP63" s="147"/>
+      <c r="AQ63" s="147"/>
+      <c r="AR63" s="147"/>
+      <c r="AS63" s="147"/>
+      <c r="AT63" s="147"/>
+      <c r="AU63" s="161"/>
       <c r="AW63" s="89" t="s">
         <v>60</v>
       </c>
@@ -10062,6 +10056,105 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="AW17:AW19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="AW20:AW22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="AW23:AW25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="AW26:AW28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="AW29:AW31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="AW32:AW34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="AW35:AW37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="AW38:AW40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="AW41:AW43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="AW44:AW46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="AW47:AW49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="AW50:AW52"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="AW59:AW61"/>
     <mergeCell ref="B63:H63"/>
     <mergeCell ref="E53:E55"/>
     <mergeCell ref="F53:F55"/>
@@ -10074,105 +10167,6 @@
     <mergeCell ref="H56:H58"/>
     <mergeCell ref="AW56:AW58"/>
     <mergeCell ref="I63:AU63"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="AW50:AW52"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="AW59:AW61"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="AW44:AW46"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="AW47:AW49"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="AW38:AW40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="AW41:AW43"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="AW32:AW34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="AW35:AW37"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="AW26:AW28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="AW29:AW31"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="AW20:AW22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="AW23:AW25"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="AW14:AW16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="AW17:AW19"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/市場_2025改修/姫路市中央卸売市場システム_開発計画書(案)20250619 .xlsx
+++ b/市場_2025改修/姫路市中央卸売市場システム_開発計画書(案)20250619 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122E864D-DC55-450A-B6E3-D864C129DA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947E3744-4611-4846-95C3-B4AACBE399AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="791" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="158">
   <si>
     <t>1W</t>
     <phoneticPr fontId="2"/>
@@ -1313,38 +1313,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>基本設計、詳細設計、テスト計画、本番運用</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>竹内 聡彦</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>設計管理、品質管理</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒンシツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(株)ｴｽｱｲ
-　竹内 聡彦</t>
-    <rPh sb="0" eb="3">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Ｒ７／０８</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1390,6 +1358,20 @@
       <t>ホンバン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(株)ｴｽｱｲ
+</t>
+    <rPh sb="0" eb="3">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本設計、詳細設計、PG開発、テスト計画～本番運用</t>
+  </si>
+  <si>
+    <t>詳細設計、テスト計画、納品物作成</t>
   </si>
 </sst>
 </file>
@@ -3409,73 +3391,403 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3486,341 +3798,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3856,15 +3838,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>362685</xdr:colOff>
+      <xdr:colOff>416263</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>41672</xdr:rowOff>
+      <xdr:rowOff>35720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>88841</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>48543</xdr:rowOff>
+      <xdr:rowOff>42591</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3879,8 +3861,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6732529" y="3178969"/>
-          <a:ext cx="3536156" cy="1447527"/>
+          <a:off x="6786107" y="3173017"/>
+          <a:ext cx="3441362" cy="1447527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4813,8 +4795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE2386-580F-4C9E-BD6A-D2FFD4ECD0CA}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5441,24 +5423,24 @@
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="131"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="130" t="s">
+      <c r="M6" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="132"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="131"/>
       <c r="Q6" s="76"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -5472,20 +5454,20 @@
     <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="137"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="125"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="137"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="125"/>
       <c r="Q7" s="122"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -5499,30 +5481,30 @@
     <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="138"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="138"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="128"/>
       <c r="Q8" s="122"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="130" t="s">
+      <c r="T8" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="132"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="131"/>
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5545,24 +5527,24 @@
       <c r="Q9" s="122"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="133" t="s">
-        <v>157</v>
-      </c>
-      <c r="U9" s="134"/>
-      <c r="V9" s="134"/>
-      <c r="W9" s="134"/>
-      <c r="X9" s="137"/>
+      <c r="T9" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="125"/>
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="132"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
@@ -5576,20 +5558,20 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="136"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="138"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="128"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="137"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="125"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5613,27 +5595,27 @@
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="138"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="143" t="s">
+      <c r="J12" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="145"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="134"/>
       <c r="N12" s="5"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="143" t="s">
+      <c r="P12" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
       <c r="T12" s="22"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -5671,12 +5653,12 @@
     <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
@@ -5700,27 +5682,27 @@
     <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="137"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="4"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="130" t="s">
+      <c r="J15" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="132"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="131"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="130" t="s">
+      <c r="P15" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
       <c r="T15" s="22"/>
       <c r="U15" s="76"/>
       <c r="V15" s="76"/>
@@ -5731,25 +5713,25 @@
     <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="138"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="141"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="136"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="133" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="134"/>
+      <c r="P16" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
       <c r="T16" s="105"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
@@ -5767,16 +5749,16 @@
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="142"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="139"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
-      <c r="S17" s="136"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
       <c r="T17" s="105"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
@@ -5787,12 +5769,12 @@
     <row r="18" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="131"/>
       <c r="G18" s="16"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
@@ -5816,27 +5798,27 @@
     <row r="19" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="137"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="125"/>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="130" t="s">
+      <c r="J19" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="132"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="131"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="130" t="s">
+      <c r="P19" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="130"/>
       <c r="T19" s="22"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -5847,25 +5829,25 @@
     <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="138"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="141"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="133" t="s">
+      <c r="P20" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="134"/>
-      <c r="S20" s="134"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
       <c r="T20" s="105"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -5883,16 +5865,16 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="142"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="139"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="136"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
       <c r="T21" s="105"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
@@ -5968,59 +5950,59 @@
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="P24" s="130" t="s">
+      <c r="P24" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
       <c r="T24" s="22"/>
-      <c r="U24" s="130" t="s">
+      <c r="U24" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="132"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="131"/>
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="127" t="s">
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="128"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="142"/>
       <c r="I25" s="4"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
-      <c r="P25" s="133" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q25" s="134"/>
-      <c r="R25" s="134"/>
-      <c r="S25" s="134"/>
+      <c r="P25" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="124"/>
       <c r="T25" s="105"/>
-      <c r="U25" s="133" t="s">
+      <c r="U25" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="V25" s="134"/>
-      <c r="W25" s="134"/>
-      <c r="X25" s="137"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="125"/>
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:25" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
       <c r="E26" s="26" t="s">
         <v>18</v>
       </c>
@@ -6032,22 +6014,22 @@
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="136"/>
-      <c r="R26" s="136"/>
-      <c r="S26" s="136"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
       <c r="T26" s="105"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="136"/>
-      <c r="W26" s="136"/>
-      <c r="X26" s="138"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="128"/>
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
       <c r="E27" s="21"/>
       <c r="F27" s="112"/>
       <c r="G27" s="112"/>
@@ -6072,9 +6054,9 @@
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
       <c r="E28" s="20" t="s">
         <v>21</v>
       </c>
@@ -6082,32 +6064,32 @@
       <c r="G28" s="76"/>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="127" t="s">
+      <c r="J28" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="128"/>
-      <c r="L28" s="127" t="s">
+      <c r="K28" s="142"/>
+      <c r="L28" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="129"/>
-      <c r="T28" s="129"/>
-      <c r="U28" s="129"/>
-      <c r="V28" s="129"/>
-      <c r="W28" s="129"/>
-      <c r="X28" s="128"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="141"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="141"/>
+      <c r="W28" s="141"/>
+      <c r="X28" s="142"/>
       <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:25" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
       <c r="E29" s="21"/>
       <c r="F29" s="112"/>
       <c r="G29" s="112"/>
@@ -6134,9 +6116,9 @@
     </row>
     <row r="30" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="20" t="s">
         <v>24</v>
       </c>
@@ -6165,9 +6147,9 @@
     </row>
     <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="21" t="s">
         <v>23</v>
       </c>
@@ -6196,9 +6178,9 @@
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
       <c r="E32" s="20" t="s">
         <v>19</v>
       </c>
@@ -6227,9 +6209,9 @@
     </row>
     <row r="33" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="125"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
       <c r="E33" s="21"/>
       <c r="F33" s="112"/>
       <c r="G33" s="112"/>
@@ -6240,7 +6222,7 @@
       </c>
       <c r="K33" s="101"/>
       <c r="L33" s="100" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="M33" s="97"/>
       <c r="N33" s="97"/>
@@ -6266,12 +6248,10 @@
       <c r="G34" s="4"/>
       <c r="H34" s="16"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="95" t="s">
-        <v>146</v>
-      </c>
+      <c r="J34" s="95"/>
       <c r="K34" s="101"/>
       <c r="L34" s="95" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M34" s="97"/>
       <c r="N34" s="97"/>
@@ -6500,13 +6480,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="T9:X10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="C7:F8"/>
-    <mergeCell ref="M7:P8"/>
-    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:X28"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="P25:S26"/>
+    <mergeCell ref="U25:X26"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="J20:M21"/>
+    <mergeCell ref="P20:S21"/>
     <mergeCell ref="C11:F12"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="P12:S12"/>
@@ -6516,24 +6507,13 @@
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="J16:M17"/>
     <mergeCell ref="P16:S17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="J20:M21"/>
-    <mergeCell ref="P20:S21"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="P25:S26"/>
-    <mergeCell ref="U25:X26"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:X28"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="T9:X10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="M7:P8"/>
+    <mergeCell ref="T8:X8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6555,8 +6535,8 @@
   </sheetPr>
   <dimension ref="A1:AW70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:R3"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6615,92 +6595,92 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="252"/>
-      <c r="D3" s="255" t="s">
+      <c r="C3" s="147"/>
+      <c r="D3" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="257" t="s">
+      <c r="E3" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="259" t="s">
+      <c r="F3" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="260"/>
+      <c r="G3" s="155"/>
       <c r="H3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="241" t="s">
+      <c r="I3" s="156" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156" t="s">
+        <v>147</v>
+      </c>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="156" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="241" t="s">
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="156"/>
+      <c r="AH3" s="156" t="s">
         <v>150</v>
       </c>
-      <c r="O3" s="241"/>
-      <c r="P3" s="241"/>
-      <c r="Q3" s="241"/>
-      <c r="R3" s="241"/>
-      <c r="S3" s="241" t="s">
+      <c r="AI3" s="156"/>
+      <c r="AJ3" s="156"/>
+      <c r="AK3" s="156"/>
+      <c r="AL3" s="156"/>
+      <c r="AM3" s="156" t="s">
         <v>151</v>
       </c>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241"/>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="241"/>
-      <c r="AB3" s="241"/>
-      <c r="AC3" s="241" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD3" s="241"/>
-      <c r="AE3" s="241"/>
-      <c r="AF3" s="241"/>
-      <c r="AG3" s="241"/>
-      <c r="AH3" s="241" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI3" s="241"/>
-      <c r="AJ3" s="241"/>
-      <c r="AK3" s="241"/>
-      <c r="AL3" s="241"/>
-      <c r="AM3" s="241" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN3" s="241"/>
-      <c r="AO3" s="241"/>
-      <c r="AP3" s="241"/>
-      <c r="AQ3" s="241"/>
-      <c r="AR3" s="241" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS3" s="241"/>
-      <c r="AT3" s="241"/>
-      <c r="AU3" s="241"/>
-      <c r="AV3" s="241"/>
-      <c r="AW3" s="239" t="s">
+      <c r="AN3" s="156"/>
+      <c r="AO3" s="156"/>
+      <c r="AP3" s="156"/>
+      <c r="AQ3" s="156"/>
+      <c r="AR3" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS3" s="156"/>
+      <c r="AT3" s="156"/>
+      <c r="AU3" s="156"/>
+      <c r="AV3" s="156"/>
+      <c r="AW3" s="157" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="253"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="242" t="s">
+      <c r="B4" s="148"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="243"/>
+      <c r="G4" s="160"/>
       <c r="H4" s="59" t="s">
         <v>31</v>
       </c>
@@ -6824,7 +6804,7 @@
       <c r="AV4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AW4" s="240"/>
+      <c r="AW4" s="158"/>
     </row>
     <row r="5" spans="1:49" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="28">
@@ -6834,16 +6814,16 @@
       <c r="D5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="244" t="s">
+      <c r="F5" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="246" t="s">
+      <c r="G5" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="248" t="s">
+      <c r="H5" s="170" t="s">
         <v>95</v>
       </c>
       <c r="I5" s="60"/>
@@ -6886,16 +6866,16 @@
       <c r="AT5" s="36"/>
       <c r="AU5" s="36"/>
       <c r="AV5" s="44"/>
-      <c r="AW5" s="195"/>
+      <c r="AW5" s="173"/>
     </row>
     <row r="6" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="28"/>
       <c r="C6" s="29"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="249"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="171"/>
       <c r="I6" s="70"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -6936,16 +6916,16 @@
       <c r="AT6" s="36"/>
       <c r="AU6" s="36"/>
       <c r="AV6" s="44"/>
-      <c r="AW6" s="167"/>
+      <c r="AW6" s="174"/>
     </row>
     <row r="7" spans="1:49" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="250"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="172"/>
       <c r="I7" s="61"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50" t="s">
@@ -6992,7 +6972,7 @@
       <c r="AT7" s="50"/>
       <c r="AU7" s="50"/>
       <c r="AV7" s="51"/>
-      <c r="AW7" s="196"/>
+      <c r="AW7" s="175"/>
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="32">
@@ -7002,16 +6982,16 @@
       <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="169" t="s">
+      <c r="E8" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="231" t="s">
+      <c r="F8" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="232" t="s">
+      <c r="G8" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="199" t="s">
+      <c r="H8" s="181" t="s">
         <v>115</v>
       </c>
       <c r="I8" s="62"/>
@@ -7054,16 +7034,16 @@
       <c r="AT8" s="34"/>
       <c r="AU8" s="34"/>
       <c r="AV8" s="35"/>
-      <c r="AW8" s="219"/>
+      <c r="AW8" s="182"/>
     </row>
     <row r="9" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="150"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="162"/>
       <c r="I9" s="60"/>
       <c r="J9" s="71"/>
       <c r="K9" s="71"/>
@@ -7104,16 +7084,16 @@
       <c r="AT9" s="36"/>
       <c r="AU9" s="36"/>
       <c r="AV9" s="44"/>
-      <c r="AW9" s="167"/>
+      <c r="AW9" s="174"/>
     </row>
     <row r="10" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="28"/>
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="170"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="177"/>
       <c r="I10" s="63"/>
       <c r="J10" s="39"/>
       <c r="L10" s="39" t="s">
@@ -7157,7 +7137,7 @@
       <c r="AT10" s="39"/>
       <c r="AU10" s="39"/>
       <c r="AV10" s="40"/>
-      <c r="AW10" s="202"/>
+      <c r="AW10" s="183"/>
     </row>
     <row r="11" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="28"/>
@@ -7167,16 +7147,16 @@
       <c r="D11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="233" t="s">
+      <c r="E11" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="234" t="s">
+      <c r="F11" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="236" t="s">
+      <c r="G11" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="238" t="s">
+      <c r="H11" s="192" t="s">
         <v>67</v>
       </c>
       <c r="I11" s="64"/>
@@ -7219,23 +7199,23 @@
       <c r="AT11" s="42"/>
       <c r="AU11" s="42"/>
       <c r="AV11" s="43"/>
-      <c r="AW11" s="195"/>
+      <c r="AW11" s="173"/>
     </row>
     <row r="12" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="184"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="193"/>
       <c r="I12" s="60"/>
       <c r="J12" s="71"/>
       <c r="K12" s="71"/>
       <c r="L12" s="71"/>
       <c r="M12" s="72"/>
       <c r="N12" s="70"/>
-      <c r="O12" s="36"/>
+      <c r="O12" s="71"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="44"/>
@@ -7269,16 +7249,16 @@
       <c r="AT12" s="36"/>
       <c r="AU12" s="36"/>
       <c r="AV12" s="44"/>
-      <c r="AW12" s="158"/>
+      <c r="AW12" s="195"/>
     </row>
     <row r="13" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="28"/>
       <c r="C13" s="46"/>
       <c r="D13" s="47"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="237"/>
-      <c r="H13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="194"/>
       <c r="I13" s="65"/>
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
@@ -7319,7 +7299,7 @@
       <c r="AT13" s="48"/>
       <c r="AU13" s="48"/>
       <c r="AV13" s="49"/>
-      <c r="AW13" s="159"/>
+      <c r="AW13" s="196"/>
     </row>
     <row r="14" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="28"/>
@@ -7329,16 +7309,16 @@
       <c r="D14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="161" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="221" t="s">
+      <c r="F14" s="197" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="223" t="s">
+      <c r="G14" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="183" t="s">
+      <c r="H14" s="201" t="s">
         <v>122</v>
       </c>
       <c r="I14" s="60"/>
@@ -7381,16 +7361,16 @@
       <c r="AT14" s="36"/>
       <c r="AU14" s="36"/>
       <c r="AV14" s="44"/>
-      <c r="AW14" s="158"/>
+      <c r="AW14" s="195"/>
     </row>
     <row r="15" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="225"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="202"/>
       <c r="I15" s="60"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -7431,16 +7411,16 @@
       <c r="AT15" s="36"/>
       <c r="AU15" s="36"/>
       <c r="AV15" s="44"/>
-      <c r="AW15" s="158"/>
+      <c r="AW15" s="195"/>
     </row>
     <row r="16" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="226"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="203"/>
       <c r="I16" s="61"/>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
@@ -7485,7 +7465,7 @@
       <c r="AT16" s="50"/>
       <c r="AU16" s="50"/>
       <c r="AV16" s="51"/>
-      <c r="AW16" s="227"/>
+      <c r="AW16" s="204"/>
     </row>
     <row r="17" spans="2:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="28">
@@ -7495,16 +7475,16 @@
       <c r="D17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="149" t="s">
+      <c r="E17" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="221" t="s">
+      <c r="F17" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="223" t="s">
+      <c r="G17" s="199" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="183" t="s">
+      <c r="H17" s="201" t="s">
         <v>123</v>
       </c>
       <c r="I17" s="60"/>
@@ -7547,16 +7527,16 @@
       <c r="AT17" s="36"/>
       <c r="AU17" s="36"/>
       <c r="AV17" s="44"/>
-      <c r="AW17" s="230"/>
+      <c r="AW17" s="208"/>
     </row>
     <row r="18" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="228"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="150"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="162"/>
       <c r="I18" s="60"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
@@ -7564,16 +7544,16 @@
       <c r="M18" s="44"/>
       <c r="N18" s="60"/>
       <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="44"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
       <c r="S18" s="70"/>
       <c r="T18" s="71"/>
       <c r="U18" s="71"/>
       <c r="V18" s="71"/>
       <c r="W18" s="72"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="71"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="36"/>
       <c r="Z18" s="36"/>
       <c r="AA18" s="36"/>
       <c r="AB18" s="44"/>
@@ -7597,16 +7577,16 @@
       <c r="AT18" s="36"/>
       <c r="AU18" s="36"/>
       <c r="AV18" s="44"/>
-      <c r="AW18" s="167"/>
+      <c r="AW18" s="174"/>
     </row>
     <row r="19" spans="2:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="229"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="189"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="163"/>
       <c r="I19" s="61"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
@@ -7647,7 +7627,7 @@
       <c r="AT19" s="50"/>
       <c r="AU19" s="50"/>
       <c r="AV19" s="51"/>
-      <c r="AW19" s="196"/>
+      <c r="AW19" s="175"/>
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B20" s="32">
@@ -7657,14 +7637,14 @@
       <c r="D20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="169" t="s">
+      <c r="E20" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="216" t="s">
+      <c r="F20" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="198"/>
-      <c r="H20" s="218" t="s">
+      <c r="G20" s="210"/>
+      <c r="H20" s="211" t="s">
         <v>126</v>
       </c>
       <c r="I20" s="62"/>
@@ -7707,16 +7687,16 @@
       <c r="AT20" s="34"/>
       <c r="AU20" s="34"/>
       <c r="AV20" s="35"/>
-      <c r="AW20" s="219"/>
+      <c r="AW20" s="182"/>
     </row>
     <row r="21" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="28"/>
       <c r="C21" s="29"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="217"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="184"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="193"/>
       <c r="I21" s="60"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
@@ -7757,16 +7737,16 @@
       <c r="AT21" s="36"/>
       <c r="AU21" s="36"/>
       <c r="AV21" s="44"/>
-      <c r="AW21" s="187"/>
+      <c r="AW21" s="213"/>
     </row>
     <row r="22" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B22" s="28"/>
       <c r="C22" s="37"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="217"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="200"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="212"/>
       <c r="I22" s="63"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
@@ -7807,7 +7787,7 @@
       <c r="AT22" s="39"/>
       <c r="AU22" s="39"/>
       <c r="AV22" s="40"/>
-      <c r="AW22" s="220"/>
+      <c r="AW22" s="214"/>
     </row>
     <row r="23" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="28"/>
@@ -7817,14 +7797,14 @@
       <c r="D23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="149" t="s">
+      <c r="E23" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="217" t="s">
+      <c r="F23" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="181"/>
-      <c r="H23" s="209" t="s">
+      <c r="G23" s="168"/>
+      <c r="H23" s="217" t="s">
         <v>75</v>
       </c>
       <c r="I23" s="60"/>
@@ -7867,16 +7847,16 @@
       <c r="AT23" s="36"/>
       <c r="AU23" s="36"/>
       <c r="AV23" s="44"/>
-      <c r="AW23" s="186"/>
+      <c r="AW23" s="218"/>
     </row>
     <row r="24" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="184"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="193"/>
       <c r="I24" s="60"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
@@ -7890,8 +7870,8 @@
       <c r="S24" s="70"/>
       <c r="T24" s="71"/>
       <c r="U24" s="71"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="44"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="72"/>
       <c r="X24" s="60"/>
       <c r="Y24" s="36"/>
       <c r="Z24" s="36"/>
@@ -7917,16 +7897,16 @@
       <c r="AT24" s="36"/>
       <c r="AU24" s="36"/>
       <c r="AV24" s="44"/>
-      <c r="AW24" s="167"/>
+      <c r="AW24" s="174"/>
     </row>
     <row r="25" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="28"/>
       <c r="C25" s="46"/>
       <c r="D25" s="47"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="194"/>
       <c r="I25" s="65"/>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
@@ -7967,7 +7947,7 @@
       <c r="AT25" s="48"/>
       <c r="AU25" s="48"/>
       <c r="AV25" s="49"/>
-      <c r="AW25" s="207"/>
+      <c r="AW25" s="219"/>
     </row>
     <row r="26" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="28"/>
@@ -7977,16 +7957,16 @@
       <c r="D26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="149" t="s">
+      <c r="E26" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="208" t="s">
+      <c r="F26" s="220" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="154" t="s">
+      <c r="G26" s="222" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="209"/>
+      <c r="H26" s="217"/>
       <c r="I26" s="60"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
@@ -8027,16 +8007,16 @@
       <c r="AT26" s="36"/>
       <c r="AU26" s="36"/>
       <c r="AV26" s="44"/>
-      <c r="AW26" s="186"/>
+      <c r="AW26" s="218"/>
     </row>
     <row r="27" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="184"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="193"/>
       <c r="I27" s="60"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
@@ -8077,16 +8057,16 @@
       <c r="AT27" s="36"/>
       <c r="AU27" s="36"/>
       <c r="AV27" s="44"/>
-      <c r="AW27" s="187"/>
+      <c r="AW27" s="213"/>
     </row>
     <row r="28" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="28"/>
       <c r="C28" s="46"/>
       <c r="D28" s="47"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="224"/>
+      <c r="H28" s="194"/>
       <c r="I28" s="65"/>
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
@@ -8103,7 +8083,7 @@
       <c r="V28" s="48"/>
       <c r="W28" s="49"/>
       <c r="X28" s="65" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y28" s="48"/>
       <c r="Z28" s="48"/>
@@ -8129,7 +8109,7 @@
       <c r="AT28" s="48"/>
       <c r="AU28" s="48"/>
       <c r="AV28" s="49"/>
-      <c r="AW28" s="188"/>
+      <c r="AW28" s="225"/>
     </row>
     <row r="29" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="28"/>
@@ -8139,16 +8119,16 @@
       <c r="D29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="149" t="s">
+      <c r="E29" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="210" t="s">
+      <c r="F29" s="226" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="211" t="s">
+      <c r="G29" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="209"/>
+      <c r="H29" s="217"/>
       <c r="I29" s="60"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -8189,16 +8169,16 @@
       <c r="AT29" s="36"/>
       <c r="AU29" s="36"/>
       <c r="AV29" s="44"/>
-      <c r="AW29" s="157"/>
+      <c r="AW29" s="232"/>
     </row>
     <row r="30" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="184"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="229"/>
+      <c r="H30" s="193"/>
       <c r="I30" s="60"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -8238,16 +8218,16 @@
       <c r="AT30" s="36"/>
       <c r="AU30" s="36"/>
       <c r="AV30" s="44"/>
-      <c r="AW30" s="187"/>
+      <c r="AW30" s="213"/>
     </row>
     <row r="31" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="214"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="227"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="231"/>
       <c r="I31" s="61"/>
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
@@ -8290,7 +8270,7 @@
       <c r="AT31" s="50"/>
       <c r="AU31" s="50"/>
       <c r="AV31" s="51"/>
-      <c r="AW31" s="215"/>
+      <c r="AW31" s="233"/>
     </row>
     <row r="32" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B32" s="32">
@@ -8300,10 +8280,10 @@
       <c r="D32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="169"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="199"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="234"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="181"/>
       <c r="I32" s="62"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
@@ -8344,16 +8324,16 @@
       <c r="AT32" s="34"/>
       <c r="AU32" s="34"/>
       <c r="AV32" s="35"/>
-      <c r="AW32" s="201"/>
+      <c r="AW32" s="235"/>
     </row>
     <row r="33" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="184"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="193"/>
       <c r="I33" s="60"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -8394,16 +8374,16 @@
       <c r="AT33" s="36"/>
       <c r="AU33" s="36"/>
       <c r="AV33" s="44"/>
-      <c r="AW33" s="167"/>
+      <c r="AW33" s="174"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B34" s="28"/>
       <c r="C34" s="37"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="200"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="212"/>
       <c r="I34" s="63"/>
       <c r="J34" s="39"/>
       <c r="K34" s="39"/>
@@ -8444,7 +8424,7 @@
       <c r="AT34" s="39"/>
       <c r="AU34" s="39"/>
       <c r="AV34" s="40"/>
-      <c r="AW34" s="202"/>
+      <c r="AW34" s="183"/>
     </row>
     <row r="35" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="28"/>
@@ -8454,16 +8434,16 @@
       <c r="D35" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="149" t="s">
+      <c r="E35" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="203" t="s">
+      <c r="F35" s="236" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="182" t="s">
+      <c r="G35" s="216" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="204" t="s">
+      <c r="H35" s="239" t="s">
         <v>81</v>
       </c>
       <c r="I35" s="60"/>
@@ -8506,16 +8486,16 @@
       <c r="AT35" s="36"/>
       <c r="AU35" s="36"/>
       <c r="AV35" s="44"/>
-      <c r="AW35" s="195"/>
+      <c r="AW35" s="173"/>
     </row>
     <row r="36" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="205"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="237"/>
+      <c r="G36" s="238"/>
+      <c r="H36" s="240"/>
       <c r="I36" s="60"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
@@ -8556,16 +8536,16 @@
       <c r="AT36" s="36"/>
       <c r="AU36" s="36"/>
       <c r="AV36" s="44"/>
-      <c r="AW36" s="167"/>
+      <c r="AW36" s="174"/>
     </row>
     <row r="37" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="28"/>
       <c r="C37" s="46"/>
       <c r="D37" s="47"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="163"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="206"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="237"/>
+      <c r="G37" s="238"/>
+      <c r="H37" s="241"/>
       <c r="I37" s="65"/>
       <c r="J37" s="48"/>
       <c r="K37" s="48"/>
@@ -8606,7 +8586,7 @@
       <c r="AT37" s="48"/>
       <c r="AU37" s="48"/>
       <c r="AV37" s="49"/>
-      <c r="AW37" s="207"/>
+      <c r="AW37" s="219"/>
     </row>
     <row r="38" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="28"/>
@@ -8616,14 +8596,14 @@
       <c r="D38" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="149" t="s">
+      <c r="E38" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="180" t="s">
+      <c r="F38" s="215" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="182"/>
-      <c r="H38" s="183" t="s">
+      <c r="G38" s="216"/>
+      <c r="H38" s="201" t="s">
         <v>128</v>
       </c>
       <c r="I38" s="60"/>
@@ -8666,16 +8646,16 @@
       <c r="AT38" s="36"/>
       <c r="AU38" s="36"/>
       <c r="AV38" s="44"/>
-      <c r="AW38" s="186"/>
+      <c r="AW38" s="218"/>
     </row>
     <row r="39" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
       <c r="D39" s="22"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="165"/>
-      <c r="H39" s="184"/>
+      <c r="E39" s="162"/>
+      <c r="F39" s="237"/>
+      <c r="G39" s="238"/>
+      <c r="H39" s="193"/>
       <c r="I39" s="60"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -8716,16 +8696,16 @@
       <c r="AT39" s="36"/>
       <c r="AU39" s="36"/>
       <c r="AV39" s="44"/>
-      <c r="AW39" s="187"/>
+      <c r="AW39" s="213"/>
     </row>
     <row r="40" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="28"/>
       <c r="C40" s="46"/>
       <c r="D40" s="47"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="185"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="194"/>
       <c r="I40" s="65"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
@@ -8766,7 +8746,7 @@
       <c r="AT40" s="48"/>
       <c r="AU40" s="48"/>
       <c r="AV40" s="49"/>
-      <c r="AW40" s="188"/>
+      <c r="AW40" s="225"/>
     </row>
     <row r="41" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="73"/>
@@ -8776,16 +8756,16 @@
       <c r="D41" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="149" t="s">
+      <c r="E41" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="163" t="s">
+      <c r="F41" s="237" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="165" t="s">
+      <c r="G41" s="238" t="s">
         <v>108</v>
       </c>
-      <c r="H41" s="192"/>
+      <c r="H41" s="244"/>
       <c r="I41" s="60"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -8828,16 +8808,16 @@
       <c r="AT41" s="36"/>
       <c r="AU41" s="36"/>
       <c r="AV41" s="44"/>
-      <c r="AW41" s="195"/>
+      <c r="AW41" s="173"/>
     </row>
     <row r="42" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="73"/>
       <c r="C42" s="29"/>
       <c r="D42" s="22"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="165"/>
-      <c r="H42" s="193"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="237"/>
+      <c r="G42" s="238"/>
+      <c r="H42" s="245"/>
       <c r="I42" s="60"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
@@ -8878,16 +8858,16 @@
       <c r="AT42" s="36"/>
       <c r="AU42" s="36"/>
       <c r="AV42" s="44"/>
-      <c r="AW42" s="167"/>
+      <c r="AW42" s="174"/>
     </row>
     <row r="43" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="74"/>
       <c r="C43" s="31"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="194"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="242"/>
+      <c r="G43" s="243"/>
+      <c r="H43" s="246"/>
       <c r="I43" s="61"/>
       <c r="J43" s="50"/>
       <c r="K43" s="50"/>
@@ -8928,7 +8908,7 @@
       <c r="AT43" s="50"/>
       <c r="AU43" s="50"/>
       <c r="AV43" s="51"/>
-      <c r="AW43" s="196"/>
+      <c r="AW43" s="175"/>
     </row>
     <row r="44" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B44" s="32">
@@ -8938,10 +8918,10 @@
       <c r="D44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="169"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="169"/>
+      <c r="E44" s="176"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="248"/>
+      <c r="H44" s="176"/>
       <c r="I44" s="62"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
@@ -8982,16 +8962,16 @@
       <c r="AT44" s="34"/>
       <c r="AU44" s="34"/>
       <c r="AV44" s="35"/>
-      <c r="AW44" s="177"/>
+      <c r="AW44" s="249"/>
     </row>
     <row r="45" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="28"/>
       <c r="C45" s="29"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="150"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="190"/>
+      <c r="H45" s="162"/>
       <c r="I45" s="60"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -9032,16 +9012,16 @@
       <c r="AT45" s="36"/>
       <c r="AU45" s="36"/>
       <c r="AV45" s="44"/>
-      <c r="AW45" s="178"/>
+      <c r="AW45" s="250"/>
     </row>
     <row r="46" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B46" s="45"/>
       <c r="C46" s="37"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="176"/>
-      <c r="H46" s="170"/>
+      <c r="E46" s="177"/>
+      <c r="F46" s="227"/>
+      <c r="G46" s="207"/>
+      <c r="H46" s="177"/>
       <c r="I46" s="63"/>
       <c r="J46" s="39"/>
       <c r="K46" s="39"/>
@@ -9082,7 +9062,7 @@
       <c r="AT46" s="39"/>
       <c r="AU46" s="39"/>
       <c r="AV46" s="40"/>
-      <c r="AW46" s="179"/>
+      <c r="AW46" s="251"/>
     </row>
     <row r="47" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="28"/>
@@ -9092,16 +9072,16 @@
       <c r="D47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="149" t="s">
+      <c r="E47" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="180" t="s">
+      <c r="F47" s="215" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="181" t="s">
+      <c r="G47" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="H47" s="149"/>
+      <c r="H47" s="161"/>
       <c r="I47" s="60"/>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -9145,16 +9125,16 @@
       <c r="AT47" s="36"/>
       <c r="AU47" s="36"/>
       <c r="AV47" s="44"/>
-      <c r="AW47" s="158"/>
+      <c r="AW47" s="195"/>
     </row>
     <row r="48" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="28"/>
       <c r="C48" s="29"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="181"/>
-      <c r="H48" s="150"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="237"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="162"/>
       <c r="I48" s="60"/>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
@@ -9195,16 +9175,16 @@
       <c r="AT48" s="36"/>
       <c r="AU48" s="36"/>
       <c r="AV48" s="44"/>
-      <c r="AW48" s="158"/>
+      <c r="AW48" s="195"/>
     </row>
     <row r="49" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="45"/>
       <c r="C49" s="46"/>
       <c r="D49" s="47"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="163"/>
-      <c r="G49" s="182"/>
-      <c r="H49" s="151"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="237"/>
+      <c r="G49" s="216"/>
+      <c r="H49" s="185"/>
       <c r="I49" s="65"/>
       <c r="J49" s="48"/>
       <c r="K49" s="48"/>
@@ -9245,7 +9225,7 @@
       <c r="AT49" s="48"/>
       <c r="AU49" s="48"/>
       <c r="AV49" s="49"/>
-      <c r="AW49" s="159"/>
+      <c r="AW49" s="196"/>
     </row>
     <row r="50" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="28"/>
@@ -9255,14 +9235,14 @@
       <c r="D50" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="149"/>
-      <c r="F50" s="152" t="s">
+      <c r="E50" s="161"/>
+      <c r="F50" s="165" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="155" t="s">
+      <c r="G50" s="223" t="s">
         <v>110</v>
       </c>
-      <c r="H50" s="149"/>
+      <c r="H50" s="161"/>
       <c r="I50" s="60"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
@@ -9305,16 +9285,16 @@
       <c r="AT50" s="36"/>
       <c r="AU50" s="36"/>
       <c r="AV50" s="44"/>
-      <c r="AW50" s="157"/>
+      <c r="AW50" s="232"/>
     </row>
     <row r="51" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="28"/>
       <c r="C51" s="29"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="150"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="155"/>
-      <c r="H51" s="150"/>
+      <c r="E51" s="162"/>
+      <c r="F51" s="165"/>
+      <c r="G51" s="223"/>
+      <c r="H51" s="162"/>
       <c r="I51" s="60"/>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
@@ -9355,16 +9335,16 @@
       <c r="AT51" s="36"/>
       <c r="AU51" s="36"/>
       <c r="AV51" s="44"/>
-      <c r="AW51" s="158"/>
+      <c r="AW51" s="195"/>
     </row>
     <row r="52" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="45"/>
       <c r="C52" s="46"/>
       <c r="D52" s="47"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="151"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="224"/>
+      <c r="H52" s="185"/>
       <c r="I52" s="65"/>
       <c r="J52" s="48"/>
       <c r="K52" s="48"/>
@@ -9405,7 +9385,7 @@
       <c r="AT52" s="48"/>
       <c r="AU52" s="48"/>
       <c r="AV52" s="49"/>
-      <c r="AW52" s="159"/>
+      <c r="AW52" s="196"/>
     </row>
     <row r="53" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="28"/>
@@ -9415,16 +9395,16 @@
       <c r="D53" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="149" t="s">
+      <c r="E53" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="152" t="s">
+      <c r="F53" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="154" t="s">
+      <c r="G53" s="222" t="s">
         <v>111</v>
       </c>
-      <c r="H53" s="149"/>
+      <c r="H53" s="161"/>
       <c r="I53" s="60"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -9466,16 +9446,16 @@
       <c r="AT53" s="36"/>
       <c r="AU53" s="36"/>
       <c r="AV53" s="44"/>
-      <c r="AW53" s="157"/>
+      <c r="AW53" s="232"/>
     </row>
     <row r="54" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="28"/>
       <c r="C54" s="29"/>
       <c r="D54" s="22"/>
-      <c r="E54" s="150"/>
-      <c r="F54" s="152"/>
-      <c r="G54" s="155"/>
-      <c r="H54" s="150"/>
+      <c r="E54" s="162"/>
+      <c r="F54" s="165"/>
+      <c r="G54" s="223"/>
+      <c r="H54" s="162"/>
       <c r="I54" s="60"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -9516,16 +9496,16 @@
       <c r="AT54" s="36"/>
       <c r="AU54" s="36"/>
       <c r="AV54" s="44"/>
-      <c r="AW54" s="158"/>
+      <c r="AW54" s="195"/>
     </row>
     <row r="55" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="45"/>
       <c r="C55" s="46"/>
       <c r="D55" s="47"/>
-      <c r="E55" s="151"/>
-      <c r="F55" s="153"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="151"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="221"/>
+      <c r="G55" s="224"/>
+      <c r="H55" s="185"/>
       <c r="I55" s="65"/>
       <c r="J55" s="48"/>
       <c r="K55" s="48"/>
@@ -9566,7 +9546,7 @@
       <c r="AT55" s="48"/>
       <c r="AU55" s="48"/>
       <c r="AV55" s="49"/>
-      <c r="AW55" s="159"/>
+      <c r="AW55" s="196"/>
     </row>
     <row r="56" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="28"/>
@@ -9576,16 +9556,16 @@
       <c r="D56" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="149" t="s">
+      <c r="E56" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="152" t="s">
+      <c r="F56" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="155" t="s">
+      <c r="G56" s="223" t="s">
         <v>112</v>
       </c>
-      <c r="H56" s="149"/>
+      <c r="H56" s="161"/>
       <c r="I56" s="60"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
@@ -9617,7 +9597,7 @@
       <c r="AK56" s="36"/>
       <c r="AL56" s="44"/>
       <c r="AM56" s="60" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AN56" s="36"/>
       <c r="AO56" s="36"/>
@@ -9628,16 +9608,16 @@
       <c r="AT56" s="36"/>
       <c r="AU56" s="36"/>
       <c r="AV56" s="44"/>
-      <c r="AW56" s="158"/>
+      <c r="AW56" s="195"/>
     </row>
     <row r="57" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="150"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="223"/>
+      <c r="H57" s="162"/>
       <c r="I57" s="60"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
@@ -9678,16 +9658,16 @@
       <c r="AT57" s="36"/>
       <c r="AU57" s="36"/>
       <c r="AV57" s="44"/>
-      <c r="AW57" s="158"/>
+      <c r="AW57" s="195"/>
     </row>
     <row r="58" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="45"/>
       <c r="C58" s="46"/>
       <c r="D58" s="47"/>
-      <c r="E58" s="151"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="151"/>
+      <c r="E58" s="185"/>
+      <c r="F58" s="221"/>
+      <c r="G58" s="224"/>
+      <c r="H58" s="185"/>
       <c r="I58" s="65"/>
       <c r="J58" s="48"/>
       <c r="K58" s="48"/>
@@ -9728,7 +9708,7 @@
       <c r="AT58" s="48"/>
       <c r="AU58" s="48"/>
       <c r="AV58" s="49"/>
-      <c r="AW58" s="159"/>
+      <c r="AW58" s="196"/>
     </row>
     <row r="59" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="28"/>
@@ -9738,16 +9718,16 @@
       <c r="D59" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="149" t="s">
+      <c r="E59" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="163" t="s">
+      <c r="F59" s="237" t="s">
         <v>94</v>
       </c>
-      <c r="G59" s="165" t="s">
+      <c r="G59" s="238" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="150"/>
+      <c r="H59" s="162"/>
       <c r="I59" s="60"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
@@ -9788,16 +9768,16 @@
       <c r="AT59" s="36"/>
       <c r="AU59" s="36"/>
       <c r="AV59" s="44"/>
-      <c r="AW59" s="167"/>
+      <c r="AW59" s="174"/>
     </row>
     <row r="60" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="D60" s="22"/>
-      <c r="E60" s="150"/>
-      <c r="F60" s="163"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="150"/>
+      <c r="E60" s="162"/>
+      <c r="F60" s="237"/>
+      <c r="G60" s="238"/>
+      <c r="H60" s="162"/>
       <c r="I60" s="60"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
@@ -9838,16 +9818,16 @@
       <c r="AT60" s="71"/>
       <c r="AU60" s="71"/>
       <c r="AV60" s="72"/>
-      <c r="AW60" s="167"/>
+      <c r="AW60" s="174"/>
     </row>
     <row r="61" spans="1:49" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B61" s="52"/>
       <c r="C61" s="53"/>
       <c r="D61" s="54"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="164"/>
-      <c r="G61" s="166"/>
-      <c r="H61" s="162"/>
+      <c r="E61" s="252"/>
+      <c r="F61" s="253"/>
+      <c r="G61" s="254"/>
+      <c r="H61" s="252"/>
       <c r="I61" s="66"/>
       <c r="J61" s="67"/>
       <c r="K61" s="67"/>
@@ -9888,61 +9868,61 @@
       <c r="AT61" s="67"/>
       <c r="AU61" s="67"/>
       <c r="AV61" s="68"/>
-      <c r="AW61" s="168"/>
+      <c r="AW61" s="255"/>
     </row>
     <row r="62" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="76"/>
-      <c r="B63" s="146" t="s">
+      <c r="B63" s="256" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="147"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="147"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="148"/>
-      <c r="I63" s="160" t="s">
+      <c r="C63" s="257"/>
+      <c r="D63" s="257"/>
+      <c r="E63" s="257"/>
+      <c r="F63" s="257"/>
+      <c r="G63" s="257"/>
+      <c r="H63" s="258"/>
+      <c r="I63" s="259" t="s">
         <v>59</v>
       </c>
-      <c r="J63" s="147"/>
-      <c r="K63" s="147"/>
-      <c r="L63" s="147"/>
-      <c r="M63" s="147"/>
-      <c r="N63" s="147"/>
-      <c r="O63" s="147"/>
-      <c r="P63" s="147"/>
-      <c r="Q63" s="147"/>
-      <c r="R63" s="147"/>
-      <c r="S63" s="147"/>
-      <c r="T63" s="147"/>
-      <c r="U63" s="147"/>
-      <c r="V63" s="147"/>
-      <c r="W63" s="147"/>
-      <c r="X63" s="147"/>
-      <c r="Y63" s="147"/>
-      <c r="Z63" s="147"/>
-      <c r="AA63" s="147"/>
-      <c r="AB63" s="147"/>
-      <c r="AC63" s="147"/>
-      <c r="AD63" s="147"/>
-      <c r="AE63" s="147"/>
-      <c r="AF63" s="147"/>
-      <c r="AG63" s="147"/>
-      <c r="AH63" s="147"/>
-      <c r="AI63" s="147"/>
-      <c r="AJ63" s="147"/>
-      <c r="AK63" s="147"/>
-      <c r="AL63" s="147"/>
-      <c r="AM63" s="147"/>
-      <c r="AN63" s="147"/>
-      <c r="AO63" s="147"/>
-      <c r="AP63" s="147"/>
-      <c r="AQ63" s="147"/>
-      <c r="AR63" s="147"/>
-      <c r="AS63" s="147"/>
-      <c r="AT63" s="147"/>
-      <c r="AU63" s="161"/>
+      <c r="J63" s="257"/>
+      <c r="K63" s="257"/>
+      <c r="L63" s="257"/>
+      <c r="M63" s="257"/>
+      <c r="N63" s="257"/>
+      <c r="O63" s="257"/>
+      <c r="P63" s="257"/>
+      <c r="Q63" s="257"/>
+      <c r="R63" s="257"/>
+      <c r="S63" s="257"/>
+      <c r="T63" s="257"/>
+      <c r="U63" s="257"/>
+      <c r="V63" s="257"/>
+      <c r="W63" s="257"/>
+      <c r="X63" s="257"/>
+      <c r="Y63" s="257"/>
+      <c r="Z63" s="257"/>
+      <c r="AA63" s="257"/>
+      <c r="AB63" s="257"/>
+      <c r="AC63" s="257"/>
+      <c r="AD63" s="257"/>
+      <c r="AE63" s="257"/>
+      <c r="AF63" s="257"/>
+      <c r="AG63" s="257"/>
+      <c r="AH63" s="257"/>
+      <c r="AI63" s="257"/>
+      <c r="AJ63" s="257"/>
+      <c r="AK63" s="257"/>
+      <c r="AL63" s="257"/>
+      <c r="AM63" s="257"/>
+      <c r="AN63" s="257"/>
+      <c r="AO63" s="257"/>
+      <c r="AP63" s="257"/>
+      <c r="AQ63" s="257"/>
+      <c r="AR63" s="257"/>
+      <c r="AS63" s="257"/>
+      <c r="AT63" s="257"/>
+      <c r="AU63" s="260"/>
       <c r="AW63" s="89" t="s">
         <v>60</v>
       </c>
@@ -10056,105 +10036,6 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="AW14:AW16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="AW17:AW19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="AW20:AW22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="AW23:AW25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="AW26:AW28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="AW29:AW31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="AW32:AW34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="AW35:AW37"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="AW38:AW40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="AW41:AW43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="AW44:AW46"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="AW47:AW49"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="AW50:AW52"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="AW59:AW61"/>
     <mergeCell ref="B63:H63"/>
     <mergeCell ref="E53:E55"/>
     <mergeCell ref="F53:F55"/>
@@ -10167,6 +10048,105 @@
     <mergeCell ref="H56:H58"/>
     <mergeCell ref="AW56:AW58"/>
     <mergeCell ref="I63:AU63"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="AW50:AW52"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="AW59:AW61"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="AW44:AW46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="AW47:AW49"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="AW38:AW40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="AW41:AW43"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="AW32:AW34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="AW35:AW37"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="AW26:AW28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="AW29:AW31"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="AW20:AW22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="AW23:AW25"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="AW17:AW19"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/市場_2025改修/姫路市中央卸売市場システム_開発計画書(案)20250619 .xlsx
+++ b/市場_2025改修/姫路市中央卸売市場システム_開発計画書(案)20250619 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947E3744-4611-4846-95C3-B4AACBE399AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6114F527-A0F0-4B5D-B0B6-7E945B6C012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="791" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体制" sheetId="49" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
   <si>
     <t>1W</t>
     <phoneticPr fontId="2"/>
@@ -1360,18 +1360,21 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">(株)ｴｽｱｲ
-</t>
+    <t>基本設計、詳細設計、PG開発、テスト計画～本番運用</t>
+  </si>
+  <si>
+    <t>詳細設計、テスト計画、納品物作成</t>
+  </si>
+  <si>
+    <t>平櫛　麻美</t>
+  </si>
+  <si>
+    <t>(株)ｴｽｱｲ
+平櫛　麻美</t>
     <rPh sb="0" eb="3">
       <t>カブシキガイシャ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本設計、詳細設計、PG開発、テスト計画～本番運用</t>
-  </si>
-  <si>
-    <t>詳細設計、テスト計画、納品物作成</t>
   </si>
 </sst>
 </file>
@@ -3391,30 +3394,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3426,38 +3462,320 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3488,321 +3806,6 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3838,13 +3841,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>416263</xdr:colOff>
+      <xdr:colOff>345281</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>35720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>42591</xdr:rowOff>
     </xdr:to>
@@ -3861,8 +3864,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6786107" y="3173017"/>
-          <a:ext cx="3441362" cy="1447527"/>
+          <a:off x="6715125" y="3173017"/>
+          <a:ext cx="3512343" cy="1447527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4795,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE2386-580F-4C9E-BD6A-D2FFD4ECD0CA}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5423,24 +5426,24 @@
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="129" t="s">
+      <c r="M6" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="132"/>
       <c r="Q6" s="76"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -5454,20 +5457,20 @@
     <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="125"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="125"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="137"/>
       <c r="Q7" s="122"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -5481,30 +5484,30 @@
     <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="128"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="138"/>
       <c r="Q8" s="122"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="129" t="s">
+      <c r="T8" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="130"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="131"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="132"/>
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5527,24 +5530,24 @@
       <c r="Q9" s="122"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="123" t="s">
+      <c r="T9" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="125"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="137"/>
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
@@ -5558,20 +5561,20 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="128"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="136"/>
+      <c r="X10" s="138"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="125"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5595,27 +5598,27 @@
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="132" t="s">
+      <c r="J12" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="134"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="145"/>
       <c r="N12" s="5"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="132" t="s">
+      <c r="P12" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="133"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
       <c r="T12" s="22"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -5653,12 +5656,12 @@
     <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
@@ -5682,27 +5685,27 @@
     <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="125"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="4"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="129" t="s">
+      <c r="J15" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="132"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="129" t="s">
+      <c r="P15" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
       <c r="T15" s="22"/>
       <c r="U15" s="76"/>
       <c r="V15" s="76"/>
@@ -5713,25 +5716,25 @@
     <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="128"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="136"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="141"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="123" t="s">
+      <c r="P16" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
       <c r="T16" s="105"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
@@ -5749,16 +5752,16 @@
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="139"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="142"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
+      <c r="S17" s="136"/>
       <c r="T17" s="105"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
@@ -5769,12 +5772,12 @@
     <row r="18" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="16"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
@@ -5798,27 +5801,27 @@
     <row r="19" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="129" t="s">
+      <c r="J19" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="132"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="129" t="s">
+      <c r="P19" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="130"/>
-      <c r="S19" s="130"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
       <c r="T19" s="22"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -5829,25 +5832,25 @@
     <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="128"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="136"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="141"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="123" t="s">
+      <c r="P20" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
       <c r="T20" s="105"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -5865,16 +5868,16 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="139"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="142"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="136"/>
       <c r="T21" s="105"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
@@ -5950,59 +5953,59 @@
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="P24" s="129" t="s">
+      <c r="P24" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="130"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
       <c r="T24" s="22"/>
-      <c r="U24" s="129" t="s">
+      <c r="U24" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="V24" s="130"/>
-      <c r="W24" s="130"/>
-      <c r="X24" s="131"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="132"/>
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="140" t="s">
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="142"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="128"/>
       <c r="I25" s="4"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
-      <c r="P25" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
+      <c r="P25" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
       <c r="T25" s="105"/>
-      <c r="U25" s="123" t="s">
+      <c r="U25" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="125"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="137"/>
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:25" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
       <c r="E26" s="26" t="s">
         <v>18</v>
       </c>
@@ -6014,22 +6017,22 @@
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="136"/>
       <c r="T26" s="105"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="128"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="136"/>
+      <c r="X26" s="138"/>
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
       <c r="E27" s="21"/>
       <c r="F27" s="112"/>
       <c r="G27" s="112"/>
@@ -6054,9 +6057,9 @@
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="20" t="s">
         <v>21</v>
       </c>
@@ -6064,32 +6067,32 @@
       <c r="G28" s="76"/>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="140" t="s">
+      <c r="J28" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="142"/>
-      <c r="L28" s="140" t="s">
+      <c r="K28" s="128"/>
+      <c r="L28" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="141"/>
-      <c r="W28" s="141"/>
-      <c r="X28" s="142"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="129"/>
+      <c r="V28" s="129"/>
+      <c r="W28" s="129"/>
+      <c r="X28" s="128"/>
       <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:25" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
       <c r="E29" s="21"/>
       <c r="F29" s="112"/>
       <c r="G29" s="112"/>
@@ -6116,9 +6119,9 @@
     </row>
     <row r="30" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
       <c r="E30" s="20" t="s">
         <v>24</v>
       </c>
@@ -6147,9 +6150,9 @@
     </row>
     <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
       <c r="E31" s="21" t="s">
         <v>23</v>
       </c>
@@ -6178,9 +6181,9 @@
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="20" t="s">
         <v>19</v>
       </c>
@@ -6209,9 +6212,9 @@
     </row>
     <row r="33" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
       <c r="E33" s="21"/>
       <c r="F33" s="112"/>
       <c r="G33" s="112"/>
@@ -6222,7 +6225,7 @@
       </c>
       <c r="K33" s="101"/>
       <c r="L33" s="100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M33" s="97"/>
       <c r="N33" s="97"/>
@@ -6248,10 +6251,12 @@
       <c r="G34" s="4"/>
       <c r="H34" s="16"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="95"/>
+      <c r="J34" s="95" t="s">
+        <v>157</v>
+      </c>
       <c r="K34" s="101"/>
       <c r="L34" s="95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M34" s="97"/>
       <c r="N34" s="97"/>
@@ -6480,24 +6485,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:X28"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="P25:S26"/>
-    <mergeCell ref="U25:X26"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="J20:M21"/>
-    <mergeCell ref="P20:S21"/>
+    <mergeCell ref="T9:X10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="M7:P8"/>
+    <mergeCell ref="T8:X8"/>
     <mergeCell ref="C11:F12"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="P12:S12"/>
@@ -6507,13 +6501,24 @@
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="J16:M17"/>
     <mergeCell ref="P16:S17"/>
-    <mergeCell ref="T9:X10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="C7:F8"/>
-    <mergeCell ref="M7:P8"/>
-    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="J20:M21"/>
+    <mergeCell ref="P20:S21"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="P25:S26"/>
+    <mergeCell ref="U25:X26"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:X28"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B32:D33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6535,7 +6540,7 @@
   </sheetPr>
   <dimension ref="A1:AW70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -6595,92 +6600,92 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="252"/>
+      <c r="D3" s="255" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="152" t="s">
+      <c r="E3" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="154" t="s">
+      <c r="F3" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="155"/>
+      <c r="G3" s="260"/>
       <c r="H3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156" t="s">
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
+      <c r="N3" s="241" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156" t="s">
+      <c r="O3" s="241"/>
+      <c r="P3" s="241"/>
+      <c r="Q3" s="241"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156" t="s">
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241" t="s">
         <v>148</v>
       </c>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156" t="s">
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="241"/>
+      <c r="AA3" s="241"/>
+      <c r="AB3" s="241"/>
+      <c r="AC3" s="241" t="s">
         <v>149</v>
       </c>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="156" t="s">
+      <c r="AD3" s="241"/>
+      <c r="AE3" s="241"/>
+      <c r="AF3" s="241"/>
+      <c r="AG3" s="241"/>
+      <c r="AH3" s="241" t="s">
         <v>150</v>
       </c>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="156"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="156"/>
-      <c r="AM3" s="156" t="s">
+      <c r="AI3" s="241"/>
+      <c r="AJ3" s="241"/>
+      <c r="AK3" s="241"/>
+      <c r="AL3" s="241"/>
+      <c r="AM3" s="241" t="s">
         <v>151</v>
       </c>
-      <c r="AN3" s="156"/>
-      <c r="AO3" s="156"/>
-      <c r="AP3" s="156"/>
-      <c r="AQ3" s="156"/>
-      <c r="AR3" s="156" t="s">
+      <c r="AN3" s="241"/>
+      <c r="AO3" s="241"/>
+      <c r="AP3" s="241"/>
+      <c r="AQ3" s="241"/>
+      <c r="AR3" s="241" t="s">
         <v>151</v>
       </c>
-      <c r="AS3" s="156"/>
-      <c r="AT3" s="156"/>
-      <c r="AU3" s="156"/>
-      <c r="AV3" s="156"/>
-      <c r="AW3" s="157" t="s">
+      <c r="AS3" s="241"/>
+      <c r="AT3" s="241"/>
+      <c r="AU3" s="241"/>
+      <c r="AV3" s="241"/>
+      <c r="AW3" s="239" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="148"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="159" t="s">
+      <c r="B4" s="253"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="160"/>
+      <c r="G4" s="243"/>
       <c r="H4" s="59" t="s">
         <v>31</v>
       </c>
@@ -6804,7 +6809,7 @@
       <c r="AV4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AW4" s="158"/>
+      <c r="AW4" s="240"/>
     </row>
     <row r="5" spans="1:49" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="28">
@@ -6814,16 +6819,16 @@
       <c r="D5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="161" t="s">
+      <c r="E5" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="164" t="s">
+      <c r="F5" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="167" t="s">
+      <c r="G5" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="170" t="s">
+      <c r="H5" s="248" t="s">
         <v>95</v>
       </c>
       <c r="I5" s="60"/>
@@ -6866,16 +6871,16 @@
       <c r="AT5" s="36"/>
       <c r="AU5" s="36"/>
       <c r="AV5" s="44"/>
-      <c r="AW5" s="173"/>
+      <c r="AW5" s="195"/>
     </row>
     <row r="6" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="28"/>
       <c r="C6" s="29"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="171"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="249"/>
       <c r="I6" s="70"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -6916,16 +6921,16 @@
       <c r="AT6" s="36"/>
       <c r="AU6" s="36"/>
       <c r="AV6" s="44"/>
-      <c r="AW6" s="174"/>
+      <c r="AW6" s="167"/>
     </row>
     <row r="7" spans="1:49" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="172"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="250"/>
       <c r="I7" s="61"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50" t="s">
@@ -6972,7 +6977,7 @@
       <c r="AT7" s="50"/>
       <c r="AU7" s="50"/>
       <c r="AV7" s="51"/>
-      <c r="AW7" s="175"/>
+      <c r="AW7" s="196"/>
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="32">
@@ -6982,16 +6987,16 @@
       <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="176" t="s">
+      <c r="E8" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="231" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="180" t="s">
+      <c r="G8" s="232" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="181" t="s">
+      <c r="H8" s="199" t="s">
         <v>115</v>
       </c>
       <c r="I8" s="62"/>
@@ -7034,16 +7039,16 @@
       <c r="AT8" s="34"/>
       <c r="AU8" s="34"/>
       <c r="AV8" s="35"/>
-      <c r="AW8" s="182"/>
+      <c r="AW8" s="219"/>
     </row>
     <row r="9" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="162"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="60"/>
       <c r="J9" s="71"/>
       <c r="K9" s="71"/>
@@ -7084,16 +7089,16 @@
       <c r="AT9" s="36"/>
       <c r="AU9" s="36"/>
       <c r="AV9" s="44"/>
-      <c r="AW9" s="174"/>
+      <c r="AW9" s="167"/>
     </row>
     <row r="10" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="28"/>
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="177"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="170"/>
       <c r="I10" s="63"/>
       <c r="J10" s="39"/>
       <c r="L10" s="39" t="s">
@@ -7137,7 +7142,7 @@
       <c r="AT10" s="39"/>
       <c r="AU10" s="39"/>
       <c r="AV10" s="40"/>
-      <c r="AW10" s="183"/>
+      <c r="AW10" s="202"/>
     </row>
     <row r="11" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="28"/>
@@ -7147,16 +7152,16 @@
       <c r="D11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="184" t="s">
+      <c r="E11" s="233" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="186" t="s">
+      <c r="F11" s="234" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="189" t="s">
+      <c r="G11" s="236" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="192" t="s">
+      <c r="H11" s="238" t="s">
         <v>67</v>
       </c>
       <c r="I11" s="64"/>
@@ -7199,16 +7204,16 @@
       <c r="AT11" s="42"/>
       <c r="AU11" s="42"/>
       <c r="AV11" s="43"/>
-      <c r="AW11" s="173"/>
+      <c r="AW11" s="195"/>
     </row>
     <row r="12" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="193"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="184"/>
       <c r="I12" s="60"/>
       <c r="J12" s="71"/>
       <c r="K12" s="71"/>
@@ -7249,16 +7254,16 @@
       <c r="AT12" s="36"/>
       <c r="AU12" s="36"/>
       <c r="AV12" s="44"/>
-      <c r="AW12" s="195"/>
+      <c r="AW12" s="158"/>
     </row>
     <row r="13" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="28"/>
       <c r="C13" s="46"/>
       <c r="D13" s="47"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="194"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="185"/>
       <c r="I13" s="65"/>
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
@@ -7299,7 +7304,7 @@
       <c r="AT13" s="48"/>
       <c r="AU13" s="48"/>
       <c r="AV13" s="49"/>
-      <c r="AW13" s="196"/>
+      <c r="AW13" s="159"/>
     </row>
     <row r="14" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="28"/>
@@ -7309,16 +7314,16 @@
       <c r="D14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="197" t="s">
+      <c r="F14" s="221" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="199" t="s">
+      <c r="G14" s="223" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="201" t="s">
+      <c r="H14" s="183" t="s">
         <v>122</v>
       </c>
       <c r="I14" s="60"/>
@@ -7361,16 +7366,16 @@
       <c r="AT14" s="36"/>
       <c r="AU14" s="36"/>
       <c r="AV14" s="44"/>
-      <c r="AW14" s="195"/>
+      <c r="AW14" s="158"/>
     </row>
     <row r="15" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="202"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="225"/>
       <c r="I15" s="60"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -7411,16 +7416,16 @@
       <c r="AT15" s="36"/>
       <c r="AU15" s="36"/>
       <c r="AV15" s="44"/>
-      <c r="AW15" s="195"/>
+      <c r="AW15" s="158"/>
     </row>
     <row r="16" spans="1:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="203"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="226"/>
       <c r="I16" s="61"/>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
@@ -7465,7 +7470,7 @@
       <c r="AT16" s="50"/>
       <c r="AU16" s="50"/>
       <c r="AV16" s="51"/>
-      <c r="AW16" s="204"/>
+      <c r="AW16" s="227"/>
     </row>
     <row r="17" spans="2:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="28">
@@ -7475,16 +7480,16 @@
       <c r="D17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="161" t="s">
+      <c r="E17" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="197" t="s">
+      <c r="F17" s="221" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="199" t="s">
+      <c r="G17" s="223" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="201" t="s">
+      <c r="H17" s="183" t="s">
         <v>123</v>
       </c>
       <c r="I17" s="60"/>
@@ -7527,16 +7532,16 @@
       <c r="AT17" s="36"/>
       <c r="AU17" s="36"/>
       <c r="AV17" s="44"/>
-      <c r="AW17" s="208"/>
+      <c r="AW17" s="230"/>
     </row>
     <row r="18" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="162"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="150"/>
       <c r="I18" s="60"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
@@ -7577,16 +7582,16 @@
       <c r="AT18" s="36"/>
       <c r="AU18" s="36"/>
       <c r="AV18" s="44"/>
-      <c r="AW18" s="174"/>
+      <c r="AW18" s="167"/>
     </row>
     <row r="19" spans="2:49" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="163"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="189"/>
       <c r="I19" s="61"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
@@ -7627,7 +7632,7 @@
       <c r="AT19" s="50"/>
       <c r="AU19" s="50"/>
       <c r="AV19" s="51"/>
-      <c r="AW19" s="175"/>
+      <c r="AW19" s="196"/>
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B20" s="32">
@@ -7637,14 +7642,14 @@
       <c r="D20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="176" t="s">
+      <c r="E20" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="209" t="s">
+      <c r="F20" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="210"/>
-      <c r="H20" s="211" t="s">
+      <c r="G20" s="198"/>
+      <c r="H20" s="218" t="s">
         <v>126</v>
       </c>
       <c r="I20" s="62"/>
@@ -7687,16 +7692,16 @@
       <c r="AT20" s="34"/>
       <c r="AU20" s="34"/>
       <c r="AV20" s="35"/>
-      <c r="AW20" s="182"/>
+      <c r="AW20" s="219"/>
     </row>
     <row r="21" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="28"/>
       <c r="C21" s="29"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="193"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="184"/>
       <c r="I21" s="60"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
@@ -7737,16 +7742,16 @@
       <c r="AT21" s="36"/>
       <c r="AU21" s="36"/>
       <c r="AV21" s="44"/>
-      <c r="AW21" s="213"/>
+      <c r="AW21" s="187"/>
     </row>
     <row r="22" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B22" s="28"/>
       <c r="C22" s="37"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="212"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="217"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="200"/>
       <c r="I22" s="63"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
@@ -7787,7 +7792,7 @@
       <c r="AT22" s="39"/>
       <c r="AU22" s="39"/>
       <c r="AV22" s="40"/>
-      <c r="AW22" s="214"/>
+      <c r="AW22" s="220"/>
     </row>
     <row r="23" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="28"/>
@@ -7797,14 +7802,14 @@
       <c r="D23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="161" t="s">
+      <c r="E23" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="179" t="s">
+      <c r="F23" s="217" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="168"/>
-      <c r="H23" s="217" t="s">
+      <c r="G23" s="181"/>
+      <c r="H23" s="209" t="s">
         <v>75</v>
       </c>
       <c r="I23" s="60"/>
@@ -7847,16 +7852,16 @@
       <c r="AT23" s="36"/>
       <c r="AU23" s="36"/>
       <c r="AV23" s="44"/>
-      <c r="AW23" s="218"/>
+      <c r="AW23" s="186"/>
     </row>
     <row r="24" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="193"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="184"/>
       <c r="I24" s="60"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
@@ -7897,16 +7902,16 @@
       <c r="AT24" s="36"/>
       <c r="AU24" s="36"/>
       <c r="AV24" s="44"/>
-      <c r="AW24" s="174"/>
+      <c r="AW24" s="167"/>
     </row>
     <row r="25" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="28"/>
       <c r="C25" s="46"/>
       <c r="D25" s="47"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="215"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="194"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="185"/>
       <c r="I25" s="65"/>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
@@ -7947,7 +7952,7 @@
       <c r="AT25" s="48"/>
       <c r="AU25" s="48"/>
       <c r="AV25" s="49"/>
-      <c r="AW25" s="219"/>
+      <c r="AW25" s="207"/>
     </row>
     <row r="26" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="28"/>
@@ -7957,16 +7962,16 @@
       <c r="D26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="161" t="s">
+      <c r="E26" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="220" t="s">
+      <c r="F26" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="222" t="s">
+      <c r="G26" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="217"/>
+      <c r="H26" s="209"/>
       <c r="I26" s="60"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
@@ -8007,16 +8012,16 @@
       <c r="AT26" s="36"/>
       <c r="AU26" s="36"/>
       <c r="AV26" s="44"/>
-      <c r="AW26" s="218"/>
+      <c r="AW26" s="186"/>
     </row>
     <row r="27" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="193"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="184"/>
       <c r="I27" s="60"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
@@ -8057,16 +8062,16 @@
       <c r="AT27" s="36"/>
       <c r="AU27" s="36"/>
       <c r="AV27" s="44"/>
-      <c r="AW27" s="213"/>
+      <c r="AW27" s="187"/>
     </row>
     <row r="28" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="28"/>
       <c r="C28" s="46"/>
       <c r="D28" s="47"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="224"/>
-      <c r="H28" s="194"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="185"/>
       <c r="I28" s="65"/>
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
@@ -8109,7 +8114,7 @@
       <c r="AT28" s="48"/>
       <c r="AU28" s="48"/>
       <c r="AV28" s="49"/>
-      <c r="AW28" s="225"/>
+      <c r="AW28" s="188"/>
     </row>
     <row r="29" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="28"/>
@@ -8119,16 +8124,16 @@
       <c r="D29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="161" t="s">
+      <c r="E29" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="226" t="s">
+      <c r="F29" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="228" t="s">
+      <c r="G29" s="211" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="217"/>
+      <c r="H29" s="209"/>
       <c r="I29" s="60"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -8169,16 +8174,16 @@
       <c r="AT29" s="36"/>
       <c r="AU29" s="36"/>
       <c r="AV29" s="44"/>
-      <c r="AW29" s="232"/>
+      <c r="AW29" s="157"/>
     </row>
     <row r="30" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="229"/>
-      <c r="H30" s="193"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="184"/>
       <c r="I30" s="60"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -8218,16 +8223,16 @@
       <c r="AT30" s="36"/>
       <c r="AU30" s="36"/>
       <c r="AV30" s="44"/>
-      <c r="AW30" s="213"/>
+      <c r="AW30" s="187"/>
     </row>
     <row r="31" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="230"/>
-      <c r="H31" s="231"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="214"/>
       <c r="I31" s="61"/>
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
@@ -8270,7 +8275,7 @@
       <c r="AT31" s="50"/>
       <c r="AU31" s="50"/>
       <c r="AV31" s="51"/>
-      <c r="AW31" s="233"/>
+      <c r="AW31" s="215"/>
     </row>
     <row r="32" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B32" s="32">
@@ -8280,10 +8285,10 @@
       <c r="D32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="176"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="181"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="199"/>
       <c r="I32" s="62"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
@@ -8324,16 +8329,16 @@
       <c r="AT32" s="34"/>
       <c r="AU32" s="34"/>
       <c r="AV32" s="35"/>
-      <c r="AW32" s="235"/>
+      <c r="AW32" s="201"/>
     </row>
     <row r="33" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="193"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="184"/>
       <c r="I33" s="60"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -8374,16 +8379,16 @@
       <c r="AT33" s="36"/>
       <c r="AU33" s="36"/>
       <c r="AV33" s="44"/>
-      <c r="AW33" s="174"/>
+      <c r="AW33" s="167"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B34" s="28"/>
       <c r="C34" s="37"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="212"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="200"/>
       <c r="I34" s="63"/>
       <c r="J34" s="39"/>
       <c r="K34" s="39"/>
@@ -8424,7 +8429,7 @@
       <c r="AT34" s="39"/>
       <c r="AU34" s="39"/>
       <c r="AV34" s="40"/>
-      <c r="AW34" s="183"/>
+      <c r="AW34" s="202"/>
     </row>
     <row r="35" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="28"/>
@@ -8434,16 +8439,16 @@
       <c r="D35" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="161" t="s">
+      <c r="E35" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="236" t="s">
+      <c r="F35" s="203" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="216" t="s">
+      <c r="G35" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="239" t="s">
+      <c r="H35" s="204" t="s">
         <v>81</v>
       </c>
       <c r="I35" s="60"/>
@@ -8486,16 +8491,16 @@
       <c r="AT35" s="36"/>
       <c r="AU35" s="36"/>
       <c r="AV35" s="44"/>
-      <c r="AW35" s="173"/>
+      <c r="AW35" s="195"/>
     </row>
     <row r="36" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="237"/>
-      <c r="G36" s="238"/>
-      <c r="H36" s="240"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="205"/>
       <c r="I36" s="60"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
@@ -8536,16 +8541,16 @@
       <c r="AT36" s="36"/>
       <c r="AU36" s="36"/>
       <c r="AV36" s="44"/>
-      <c r="AW36" s="174"/>
+      <c r="AW36" s="167"/>
     </row>
     <row r="37" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="28"/>
       <c r="C37" s="46"/>
       <c r="D37" s="47"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="237"/>
-      <c r="G37" s="238"/>
-      <c r="H37" s="241"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="206"/>
       <c r="I37" s="65"/>
       <c r="J37" s="48"/>
       <c r="K37" s="48"/>
@@ -8586,7 +8591,7 @@
       <c r="AT37" s="48"/>
       <c r="AU37" s="48"/>
       <c r="AV37" s="49"/>
-      <c r="AW37" s="219"/>
+      <c r="AW37" s="207"/>
     </row>
     <row r="38" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="28"/>
@@ -8596,14 +8601,14 @@
       <c r="D38" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="161" t="s">
+      <c r="E38" s="149" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="215" t="s">
+      <c r="F38" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="216"/>
-      <c r="H38" s="201" t="s">
+      <c r="G38" s="182"/>
+      <c r="H38" s="183" t="s">
         <v>128</v>
       </c>
       <c r="I38" s="60"/>
@@ -8646,16 +8651,16 @@
       <c r="AT38" s="36"/>
       <c r="AU38" s="36"/>
       <c r="AV38" s="44"/>
-      <c r="AW38" s="218"/>
+      <c r="AW38" s="186"/>
     </row>
     <row r="39" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
       <c r="D39" s="22"/>
-      <c r="E39" s="162"/>
-      <c r="F39" s="237"/>
-      <c r="G39" s="238"/>
-      <c r="H39" s="193"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="184"/>
       <c r="I39" s="60"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -8696,16 +8701,16 @@
       <c r="AT39" s="36"/>
       <c r="AU39" s="36"/>
       <c r="AV39" s="44"/>
-      <c r="AW39" s="213"/>
+      <c r="AW39" s="187"/>
     </row>
     <row r="40" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="28"/>
       <c r="C40" s="46"/>
       <c r="D40" s="47"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="237"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="194"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="185"/>
       <c r="I40" s="65"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
@@ -8746,7 +8751,7 @@
       <c r="AT40" s="48"/>
       <c r="AU40" s="48"/>
       <c r="AV40" s="49"/>
-      <c r="AW40" s="225"/>
+      <c r="AW40" s="188"/>
     </row>
     <row r="41" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="73"/>
@@ -8756,16 +8761,16 @@
       <c r="D41" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="161" t="s">
+      <c r="E41" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="237" t="s">
+      <c r="F41" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="238" t="s">
+      <c r="G41" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="H41" s="244"/>
+      <c r="H41" s="192"/>
       <c r="I41" s="60"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -8808,16 +8813,16 @@
       <c r="AT41" s="36"/>
       <c r="AU41" s="36"/>
       <c r="AV41" s="44"/>
-      <c r="AW41" s="173"/>
+      <c r="AW41" s="195"/>
     </row>
     <row r="42" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="73"/>
       <c r="C42" s="29"/>
       <c r="D42" s="22"/>
-      <c r="E42" s="162"/>
-      <c r="F42" s="237"/>
-      <c r="G42" s="238"/>
-      <c r="H42" s="245"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="193"/>
       <c r="I42" s="60"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
@@ -8858,16 +8863,16 @@
       <c r="AT42" s="36"/>
       <c r="AU42" s="36"/>
       <c r="AV42" s="44"/>
-      <c r="AW42" s="174"/>
+      <c r="AW42" s="167"/>
     </row>
     <row r="43" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="74"/>
       <c r="C43" s="31"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="242"/>
-      <c r="G43" s="243"/>
-      <c r="H43" s="246"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="194"/>
       <c r="I43" s="61"/>
       <c r="J43" s="50"/>
       <c r="K43" s="50"/>
@@ -8908,7 +8913,7 @@
       <c r="AT43" s="50"/>
       <c r="AU43" s="50"/>
       <c r="AV43" s="51"/>
-      <c r="AW43" s="175"/>
+      <c r="AW43" s="196"/>
     </row>
     <row r="44" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B44" s="32">
@@ -8918,10 +8923,10 @@
       <c r="D44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="176"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="248"/>
-      <c r="H44" s="176"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="169"/>
       <c r="I44" s="62"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
@@ -8962,16 +8967,16 @@
       <c r="AT44" s="34"/>
       <c r="AU44" s="34"/>
       <c r="AV44" s="35"/>
-      <c r="AW44" s="249"/>
+      <c r="AW44" s="177"/>
     </row>
     <row r="45" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="28"/>
       <c r="C45" s="29"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="190"/>
-      <c r="H45" s="162"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="150"/>
       <c r="I45" s="60"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -9012,16 +9017,16 @@
       <c r="AT45" s="36"/>
       <c r="AU45" s="36"/>
       <c r="AV45" s="44"/>
-      <c r="AW45" s="250"/>
+      <c r="AW45" s="178"/>
     </row>
     <row r="46" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B46" s="45"/>
       <c r="C46" s="37"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="207"/>
-      <c r="H46" s="177"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="170"/>
       <c r="I46" s="63"/>
       <c r="J46" s="39"/>
       <c r="K46" s="39"/>
@@ -9062,7 +9067,7 @@
       <c r="AT46" s="39"/>
       <c r="AU46" s="39"/>
       <c r="AV46" s="40"/>
-      <c r="AW46" s="251"/>
+      <c r="AW46" s="179"/>
     </row>
     <row r="47" spans="2:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="28"/>
@@ -9072,16 +9077,16 @@
       <c r="D47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="161" t="s">
+      <c r="E47" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="215" t="s">
+      <c r="F47" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="168" t="s">
+      <c r="G47" s="181" t="s">
         <v>109</v>
       </c>
-      <c r="H47" s="161"/>
+      <c r="H47" s="149"/>
       <c r="I47" s="60"/>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -9125,16 +9130,16 @@
       <c r="AT47" s="36"/>
       <c r="AU47" s="36"/>
       <c r="AV47" s="44"/>
-      <c r="AW47" s="195"/>
+      <c r="AW47" s="158"/>
     </row>
     <row r="48" spans="2:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="28"/>
       <c r="C48" s="29"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="162"/>
-      <c r="F48" s="237"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="162"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="181"/>
+      <c r="H48" s="150"/>
       <c r="I48" s="60"/>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
@@ -9175,16 +9180,16 @@
       <c r="AT48" s="36"/>
       <c r="AU48" s="36"/>
       <c r="AV48" s="44"/>
-      <c r="AW48" s="195"/>
+      <c r="AW48" s="158"/>
     </row>
     <row r="49" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="45"/>
       <c r="C49" s="46"/>
       <c r="D49" s="47"/>
-      <c r="E49" s="185"/>
-      <c r="F49" s="237"/>
-      <c r="G49" s="216"/>
-      <c r="H49" s="185"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="163"/>
+      <c r="G49" s="182"/>
+      <c r="H49" s="151"/>
       <c r="I49" s="65"/>
       <c r="J49" s="48"/>
       <c r="K49" s="48"/>
@@ -9225,7 +9230,7 @@
       <c r="AT49" s="48"/>
       <c r="AU49" s="48"/>
       <c r="AV49" s="49"/>
-      <c r="AW49" s="196"/>
+      <c r="AW49" s="159"/>
     </row>
     <row r="50" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="28"/>
@@ -9235,14 +9240,14 @@
       <c r="D50" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="161"/>
-      <c r="F50" s="165" t="s">
+      <c r="E50" s="149"/>
+      <c r="F50" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="223" t="s">
+      <c r="G50" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="H50" s="161"/>
+      <c r="H50" s="149"/>
       <c r="I50" s="60"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
@@ -9285,16 +9290,16 @@
       <c r="AT50" s="36"/>
       <c r="AU50" s="36"/>
       <c r="AV50" s="44"/>
-      <c r="AW50" s="232"/>
+      <c r="AW50" s="157"/>
     </row>
     <row r="51" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="28"/>
       <c r="C51" s="29"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="223"/>
-      <c r="H51" s="162"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="150"/>
       <c r="I51" s="60"/>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
@@ -9335,16 +9340,16 @@
       <c r="AT51" s="36"/>
       <c r="AU51" s="36"/>
       <c r="AV51" s="44"/>
-      <c r="AW51" s="195"/>
+      <c r="AW51" s="158"/>
     </row>
     <row r="52" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="45"/>
       <c r="C52" s="46"/>
       <c r="D52" s="47"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="224"/>
-      <c r="H52" s="185"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="151"/>
       <c r="I52" s="65"/>
       <c r="J52" s="48"/>
       <c r="K52" s="48"/>
@@ -9385,7 +9390,7 @@
       <c r="AT52" s="48"/>
       <c r="AU52" s="48"/>
       <c r="AV52" s="49"/>
-      <c r="AW52" s="196"/>
+      <c r="AW52" s="159"/>
     </row>
     <row r="53" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="28"/>
@@ -9395,16 +9400,16 @@
       <c r="D53" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="161" t="s">
+      <c r="E53" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="165" t="s">
+      <c r="F53" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="222" t="s">
+      <c r="G53" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="H53" s="161"/>
+      <c r="H53" s="149"/>
       <c r="I53" s="60"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -9446,16 +9451,16 @@
       <c r="AT53" s="36"/>
       <c r="AU53" s="36"/>
       <c r="AV53" s="44"/>
-      <c r="AW53" s="232"/>
+      <c r="AW53" s="157"/>
     </row>
     <row r="54" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="28"/>
       <c r="C54" s="29"/>
       <c r="D54" s="22"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="223"/>
-      <c r="H54" s="162"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="152"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="150"/>
       <c r="I54" s="60"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -9496,16 +9501,16 @@
       <c r="AT54" s="36"/>
       <c r="AU54" s="36"/>
       <c r="AV54" s="44"/>
-      <c r="AW54" s="195"/>
+      <c r="AW54" s="158"/>
     </row>
     <row r="55" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="45"/>
       <c r="C55" s="46"/>
       <c r="D55" s="47"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="221"/>
-      <c r="G55" s="224"/>
-      <c r="H55" s="185"/>
+      <c r="E55" s="151"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="151"/>
       <c r="I55" s="65"/>
       <c r="J55" s="48"/>
       <c r="K55" s="48"/>
@@ -9546,7 +9551,7 @@
       <c r="AT55" s="48"/>
       <c r="AU55" s="48"/>
       <c r="AV55" s="49"/>
-      <c r="AW55" s="196"/>
+      <c r="AW55" s="159"/>
     </row>
     <row r="56" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="28"/>
@@ -9556,16 +9561,16 @@
       <c r="D56" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="161" t="s">
+      <c r="E56" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="165" t="s">
+      <c r="F56" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="223" t="s">
+      <c r="G56" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="H56" s="161"/>
+      <c r="H56" s="149"/>
       <c r="I56" s="60"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
@@ -9608,16 +9613,16 @@
       <c r="AT56" s="36"/>
       <c r="AU56" s="36"/>
       <c r="AV56" s="44"/>
-      <c r="AW56" s="195"/>
+      <c r="AW56" s="158"/>
     </row>
     <row r="57" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="223"/>
-      <c r="H57" s="162"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="150"/>
       <c r="I57" s="60"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
@@ -9658,16 +9663,16 @@
       <c r="AT57" s="36"/>
       <c r="AU57" s="36"/>
       <c r="AV57" s="44"/>
-      <c r="AW57" s="195"/>
+      <c r="AW57" s="158"/>
     </row>
     <row r="58" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="45"/>
       <c r="C58" s="46"/>
       <c r="D58" s="47"/>
-      <c r="E58" s="185"/>
-      <c r="F58" s="221"/>
-      <c r="G58" s="224"/>
-      <c r="H58" s="185"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="151"/>
       <c r="I58" s="65"/>
       <c r="J58" s="48"/>
       <c r="K58" s="48"/>
@@ -9708,7 +9713,7 @@
       <c r="AT58" s="48"/>
       <c r="AU58" s="48"/>
       <c r="AV58" s="49"/>
-      <c r="AW58" s="196"/>
+      <c r="AW58" s="159"/>
     </row>
     <row r="59" spans="1:49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="28"/>
@@ -9718,16 +9723,16 @@
       <c r="D59" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="161" t="s">
+      <c r="E59" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="237" t="s">
+      <c r="F59" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="G59" s="238" t="s">
+      <c r="G59" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="162"/>
+      <c r="H59" s="150"/>
       <c r="I59" s="60"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
@@ -9768,16 +9773,16 @@
       <c r="AT59" s="36"/>
       <c r="AU59" s="36"/>
       <c r="AV59" s="44"/>
-      <c r="AW59" s="174"/>
+      <c r="AW59" s="167"/>
     </row>
     <row r="60" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="D60" s="22"/>
-      <c r="E60" s="162"/>
-      <c r="F60" s="237"/>
-      <c r="G60" s="238"/>
-      <c r="H60" s="162"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="163"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="150"/>
       <c r="I60" s="60"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
@@ -9818,16 +9823,16 @@
       <c r="AT60" s="71"/>
       <c r="AU60" s="71"/>
       <c r="AV60" s="72"/>
-      <c r="AW60" s="174"/>
+      <c r="AW60" s="167"/>
     </row>
     <row r="61" spans="1:49" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B61" s="52"/>
       <c r="C61" s="53"/>
       <c r="D61" s="54"/>
-      <c r="E61" s="252"/>
-      <c r="F61" s="253"/>
-      <c r="G61" s="254"/>
-      <c r="H61" s="252"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="166"/>
+      <c r="H61" s="162"/>
       <c r="I61" s="66"/>
       <c r="J61" s="67"/>
       <c r="K61" s="67"/>
@@ -9868,61 +9873,61 @@
       <c r="AT61" s="67"/>
       <c r="AU61" s="67"/>
       <c r="AV61" s="68"/>
-      <c r="AW61" s="255"/>
+      <c r="AW61" s="168"/>
     </row>
     <row r="62" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="76"/>
-      <c r="B63" s="256" t="s">
+      <c r="B63" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="257"/>
-      <c r="D63" s="257"/>
-      <c r="E63" s="257"/>
-      <c r="F63" s="257"/>
-      <c r="G63" s="257"/>
-      <c r="H63" s="258"/>
-      <c r="I63" s="259" t="s">
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="J63" s="257"/>
-      <c r="K63" s="257"/>
-      <c r="L63" s="257"/>
-      <c r="M63" s="257"/>
-      <c r="N63" s="257"/>
-      <c r="O63" s="257"/>
-      <c r="P63" s="257"/>
-      <c r="Q63" s="257"/>
-      <c r="R63" s="257"/>
-      <c r="S63" s="257"/>
-      <c r="T63" s="257"/>
-      <c r="U63" s="257"/>
-      <c r="V63" s="257"/>
-      <c r="W63" s="257"/>
-      <c r="X63" s="257"/>
-      <c r="Y63" s="257"/>
-      <c r="Z63" s="257"/>
-      <c r="AA63" s="257"/>
-      <c r="AB63" s="257"/>
-      <c r="AC63" s="257"/>
-      <c r="AD63" s="257"/>
-      <c r="AE63" s="257"/>
-      <c r="AF63" s="257"/>
-      <c r="AG63" s="257"/>
-      <c r="AH63" s="257"/>
-      <c r="AI63" s="257"/>
-      <c r="AJ63" s="257"/>
-      <c r="AK63" s="257"/>
-      <c r="AL63" s="257"/>
-      <c r="AM63" s="257"/>
-      <c r="AN63" s="257"/>
-      <c r="AO63" s="257"/>
-      <c r="AP63" s="257"/>
-      <c r="AQ63" s="257"/>
-      <c r="AR63" s="257"/>
-      <c r="AS63" s="257"/>
-      <c r="AT63" s="257"/>
-      <c r="AU63" s="260"/>
+      <c r="J63" s="147"/>
+      <c r="K63" s="147"/>
+      <c r="L63" s="147"/>
+      <c r="M63" s="147"/>
+      <c r="N63" s="147"/>
+      <c r="O63" s="147"/>
+      <c r="P63" s="147"/>
+      <c r="Q63" s="147"/>
+      <c r="R63" s="147"/>
+      <c r="S63" s="147"/>
+      <c r="T63" s="147"/>
+      <c r="U63" s="147"/>
+      <c r="V63" s="147"/>
+      <c r="W63" s="147"/>
+      <c r="X63" s="147"/>
+      <c r="Y63" s="147"/>
+      <c r="Z63" s="147"/>
+      <c r="AA63" s="147"/>
+      <c r="AB63" s="147"/>
+      <c r="AC63" s="147"/>
+      <c r="AD63" s="147"/>
+      <c r="AE63" s="147"/>
+      <c r="AF63" s="147"/>
+      <c r="AG63" s="147"/>
+      <c r="AH63" s="147"/>
+      <c r="AI63" s="147"/>
+      <c r="AJ63" s="147"/>
+      <c r="AK63" s="147"/>
+      <c r="AL63" s="147"/>
+      <c r="AM63" s="147"/>
+      <c r="AN63" s="147"/>
+      <c r="AO63" s="147"/>
+      <c r="AP63" s="147"/>
+      <c r="AQ63" s="147"/>
+      <c r="AR63" s="147"/>
+      <c r="AS63" s="147"/>
+      <c r="AT63" s="147"/>
+      <c r="AU63" s="161"/>
       <c r="AW63" s="89" t="s">
         <v>60</v>
       </c>
@@ -10036,6 +10041,105 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="AW17:AW19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="AW20:AW22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="AW23:AW25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="AW26:AW28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="AW29:AW31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="AW32:AW34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="AW35:AW37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="AW38:AW40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="AW41:AW43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="AW44:AW46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="AW47:AW49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="AW50:AW52"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="AW59:AW61"/>
     <mergeCell ref="B63:H63"/>
     <mergeCell ref="E53:E55"/>
     <mergeCell ref="F53:F55"/>
@@ -10048,105 +10152,6 @@
     <mergeCell ref="H56:H58"/>
     <mergeCell ref="AW56:AW58"/>
     <mergeCell ref="I63:AU63"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="AW50:AW52"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="AW59:AW61"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="AW44:AW46"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="AW47:AW49"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="AW38:AW40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="AW41:AW43"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="AW32:AW34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="AW35:AW37"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="AW26:AW28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="AW29:AW31"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="AW20:AW22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="AW23:AW25"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="AW14:AW16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="AW17:AW19"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
